--- a/March'21/01.03.2021/Bank Statement.xlsx
+++ b/March'21/01.03.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Extra Stock" sheetId="50" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="51" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Allocation!$A$1:$W$26</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -193,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="134">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -405,9 +408,6 @@
     <t>Alomgir</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Date :27-02-2021</t>
   </si>
   <si>
@@ -570,9 +570,6 @@
     <t>Sign</t>
   </si>
   <si>
-    <t>Date:02.03.2021</t>
-  </si>
-  <si>
     <t>Tuhin Paid</t>
   </si>
   <si>
@@ -598,6 +595,9 @@
   </si>
   <si>
     <t>sim(594+36)</t>
+  </si>
+  <si>
+    <t>Date:03.03.2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1680,19 +1680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1742,7 +1729,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2348,12 +2335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2414,15 +2392,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,238 +2410,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2712,6 +2597,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3169,70 +3120,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="264"/>
-      <c r="L1" s="264"/>
-      <c r="M1" s="264"/>
-      <c r="N1" s="264"/>
-      <c r="O1" s="264"/>
-      <c r="P1" s="264"/>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="264"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="237"/>
+      <c r="O1" s="237"/>
+      <c r="P1" s="237"/>
+      <c r="Q1" s="237"/>
+      <c r="R1" s="237"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
-      <c r="P2" s="265"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="265"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
+      <c r="N2" s="238"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="275"/>
-      <c r="M3" s="275"/>
-      <c r="N3" s="275"/>
-      <c r="O3" s="275"/>
-      <c r="P3" s="275"/>
-      <c r="Q3" s="275"/>
-      <c r="R3" s="276"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3241,55 +3192,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="268" t="s">
+      <c r="C4" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="262" t="s">
+      <c r="D4" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="262" t="s">
+      <c r="E4" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="243" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="262" t="s">
+      <c r="G4" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="262" t="s">
+      <c r="H4" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="262" t="s">
+      <c r="I4" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="262" t="s">
+      <c r="J4" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="277" t="s">
+      <c r="K4" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="279" t="s">
+      <c r="L4" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="281" t="s">
+      <c r="M4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="283" t="s">
+      <c r="N4" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="285" t="s">
+      <c r="O4" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="270" t="s">
+      <c r="P4" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="272" t="s">
+      <c r="Q4" s="247" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3302,23 +3253,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="267"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
-      <c r="J5" s="263"/>
-      <c r="K5" s="278"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="282"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="271"/>
-      <c r="Q5" s="273"/>
+      <c r="A5" s="240"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="255"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="248"/>
       <c r="R5" s="105" t="s">
         <v>36</v>
       </c>
@@ -3331,7 +3282,7 @@
     </row>
     <row r="6" spans="1:25" s="108" customFormat="1">
       <c r="A6" s="109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="111"/>
@@ -6240,10 +6191,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6260,6 +6207,10 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6284,12 +6235,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="262" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="289"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="264"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6304,12 +6255,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -6403,7 +6354,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="50">
         <v>364000</v>
@@ -8199,7 +8150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -8221,25 +8172,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="293"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268"/>
       <c r="G1" s="21"/>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="294" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="296"/>
+      <c r="A2" s="269" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1">
       <c r="A3" s="33" t="s">
@@ -8264,11 +8215,11 @@
       <c r="D4" s="18"/>
       <c r="E4" s="85"/>
       <c r="F4" s="28"/>
-      <c r="J4" s="297" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="298"/>
-      <c r="L4" s="299"/>
+      <c r="J4" s="272" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="273"/>
+      <c r="L4" s="274"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="86" t="s">
@@ -8289,7 +8240,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="186" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" s="186" t="s">
         <v>44</v>
@@ -8311,10 +8262,10 @@
       </c>
       <c r="F6" s="3"/>
       <c r="J6" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="186" t="s">
         <v>94</v>
-      </c>
-      <c r="K6" s="186" t="s">
-        <v>95</v>
       </c>
       <c r="L6" s="186">
         <v>2050</v>
@@ -8332,10 +8283,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="J7" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="186" t="s">
         <v>96</v>
-      </c>
-      <c r="K7" s="186" t="s">
-        <v>97</v>
       </c>
       <c r="L7" s="186">
         <v>7300</v>
@@ -8357,10 +8308,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="186" t="s">
         <v>98</v>
-      </c>
-      <c r="K8" s="186" t="s">
-        <v>99</v>
       </c>
       <c r="L8" s="186">
         <v>1150</v>
@@ -8382,10 +8333,10 @@
       </c>
       <c r="F9" s="22"/>
       <c r="J9" s="146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K9" s="186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" s="186">
         <v>300</v>
@@ -8399,10 +8350,10 @@
       <c r="E10" s="89"/>
       <c r="F10" s="22"/>
       <c r="J10" s="146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10" s="186">
         <v>450</v>
@@ -8424,10 +8375,10 @@
       </c>
       <c r="I11" s="144"/>
       <c r="J11" s="146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L11" s="186">
         <v>410</v>
@@ -8448,10 +8399,10 @@
       <c r="E12" s="89"/>
       <c r="F12" s="22"/>
       <c r="J12" s="146" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K12" s="186" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L12" s="186">
         <v>120006</v>
@@ -8476,10 +8427,10 @@
       <c r="E14" s="91"/>
       <c r="F14" s="24"/>
       <c r="J14" s="152" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="188" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" s="188" t="s">
-        <v>104</v>
       </c>
       <c r="L14" s="188">
         <v>5547</v>
@@ -8503,10 +8454,10 @@
       </c>
       <c r="F15" s="22"/>
       <c r="J15" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="186" t="s">
         <v>105</v>
-      </c>
-      <c r="K15" s="186" t="s">
-        <v>106</v>
       </c>
       <c r="L15" s="186">
         <v>945</v>
@@ -8520,21 +8471,21 @@
       <c r="E16" s="96"/>
       <c r="F16" s="22"/>
       <c r="J16" s="152" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="152" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="152" t="s">
-        <v>108</v>
       </c>
       <c r="L16" s="189">
         <v>7989</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="300"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="301"/>
-      <c r="E17" s="302"/>
+      <c r="A17" s="275"/>
+      <c r="B17" s="276"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="276"/>
+      <c r="E17" s="277"/>
       <c r="F17" s="26"/>
       <c r="J17" s="190"/>
       <c r="K17" s="190"/>
@@ -8546,10 +8497,10 @@
       <c r="D18" s="13"/>
       <c r="F18" s="26"/>
       <c r="J18" s="83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L18" s="83">
         <v>576</v>
@@ -8560,10 +8511,10 @@
       <c r="C19" s="27"/>
       <c r="F19" s="26"/>
       <c r="J19" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" s="83">
         <v>72</v>
@@ -8575,10 +8526,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="26"/>
-      <c r="J20" s="303" t="s">
+      <c r="J20" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="303"/>
+      <c r="K20" s="278"/>
       <c r="L20" s="191">
         <f>SUM(L6:L19)</f>
         <v>146795</v>
@@ -8665,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8677,762 +8628,762 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24" customHeight="1">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="315"/>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315"/>
-      <c r="U1" s="315"/>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="279"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
+      <c r="H1" s="279"/>
+      <c r="I1" s="279"/>
+      <c r="J1" s="279"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="279"/>
+      <c r="O1" s="279"/>
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="279"/>
+      <c r="S1" s="279"/>
+      <c r="T1" s="279"/>
+      <c r="U1" s="279"/>
+      <c r="V1" s="279"/>
+      <c r="W1" s="279"/>
     </row>
     <row r="2" spans="1:23" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="317" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="317"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="316" t="s">
+      <c r="A2" s="281" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+      <c r="Q2" s="280"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="280"/>
+      <c r="T2" s="280"/>
+      <c r="U2" s="280"/>
+      <c r="V2" s="280"/>
+      <c r="W2" s="280"/>
     </row>
     <row r="3" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="261"/>
-      <c r="B3" s="312" t="s">
+      <c r="A3" s="297"/>
+      <c r="B3" s="298" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="299"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="298" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="301"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="301" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="303" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="304"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="303" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="304"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="306" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="301"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="U3" s="304"/>
+      <c r="V3" s="305"/>
+      <c r="W3" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="308" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="309" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="310" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="312" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="308"/>
-      <c r="G3" s="309"/>
-      <c r="H3" s="308" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="308"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="304" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="305"/>
-      <c r="M3" s="306"/>
-      <c r="N3" s="304" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="305"/>
-      <c r="P3" s="306"/>
-      <c r="Q3" s="307" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="308"/>
-      <c r="S3" s="309"/>
-      <c r="T3" s="304" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" s="305"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="310" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="253" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="254" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="209" t="s">
+      <c r="D4" s="311" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="255" t="s">
+      <c r="E4" s="309" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="254" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="209" t="s">
+      <c r="F4" s="310" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="256" t="s">
+      <c r="H4" s="313" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="257" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="199" t="s">
+      <c r="I4" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="258" t="s">
+      <c r="K4" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="259" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="199" t="s">
+      <c r="L4" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="256" t="s">
+      <c r="N4" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="259" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="199" t="s">
+      <c r="O4" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="Q4" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="Q4" s="259" t="s">
-        <v>119</v>
-      </c>
-      <c r="R4" s="199" t="s">
+      <c r="R4" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="S4" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="S4" s="256" t="s">
+      <c r="T4" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="T4" s="259" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" s="199" t="s">
+      <c r="U4" s="166" t="s">
+        <v>116</v>
+      </c>
+      <c r="V4" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="V4" s="256" t="s">
-        <v>118</v>
-      </c>
-      <c r="W4" s="311"/>
+      <c r="W4" s="315"/>
     </row>
     <row r="5" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="250">
+      <c r="A5" s="235">
         <v>34</v>
       </c>
       <c r="B5" s="176"/>
       <c r="C5" s="150"/>
-      <c r="D5" s="211"/>
+      <c r="D5" s="209"/>
       <c r="E5" s="176"/>
       <c r="F5" s="150"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="216"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="214"/>
       <c r="I5" s="152"/>
       <c r="J5" s="205"/>
-      <c r="K5" s="224"/>
+      <c r="K5" s="221"/>
       <c r="L5" s="44"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="224"/>
+      <c r="M5" s="222"/>
+      <c r="N5" s="221"/>
       <c r="O5" s="44"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="224"/>
+      <c r="P5" s="222"/>
+      <c r="Q5" s="221"/>
       <c r="R5" s="44"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="224"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="221"/>
       <c r="U5" s="44"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="237"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="231"/>
     </row>
     <row r="6" spans="1:23" s="149" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="250">
+      <c r="A6" s="235">
         <v>35</v>
       </c>
       <c r="B6" s="176"/>
       <c r="C6" s="150"/>
-      <c r="D6" s="211"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="176"/>
       <c r="F6" s="150"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="216"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="214"/>
       <c r="I6" s="152"/>
       <c r="J6" s="205"/>
-      <c r="K6" s="226"/>
+      <c r="K6" s="223"/>
       <c r="L6" s="207"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="226"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="223"/>
       <c r="O6" s="207"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="226"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="223"/>
       <c r="R6" s="207"/>
-      <c r="S6" s="227"/>
-      <c r="T6" s="226"/>
+      <c r="S6" s="224"/>
+      <c r="T6" s="223"/>
       <c r="U6" s="207"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="238"/>
+      <c r="V6" s="224"/>
+      <c r="W6" s="232"/>
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1">
-      <c r="A7" s="250">
+      <c r="A7" s="235">
         <v>36</v>
       </c>
       <c r="B7" s="176"/>
       <c r="C7" s="150"/>
-      <c r="D7" s="211"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="176"/>
       <c r="F7" s="150"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="216"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="214"/>
       <c r="I7" s="152"/>
       <c r="J7" s="205"/>
-      <c r="K7" s="228"/>
+      <c r="K7" s="225"/>
       <c r="L7" s="208"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="228"/>
+      <c r="M7" s="226"/>
+      <c r="N7" s="225"/>
       <c r="O7" s="208"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="228"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="225"/>
       <c r="R7" s="208"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="228"/>
+      <c r="S7" s="226"/>
+      <c r="T7" s="225"/>
       <c r="U7" s="208"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="239"/>
+      <c r="V7" s="226"/>
+      <c r="W7" s="233"/>
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1">
-      <c r="A8" s="250">
+      <c r="A8" s="235">
         <v>37</v>
       </c>
       <c r="B8" s="176"/>
       <c r="C8" s="150"/>
-      <c r="D8" s="211"/>
+      <c r="D8" s="209"/>
       <c r="E8" s="176"/>
       <c r="F8" s="150"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="216"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="214"/>
       <c r="I8" s="152"/>
       <c r="J8" s="206"/>
-      <c r="K8" s="228"/>
+      <c r="K8" s="225"/>
       <c r="L8" s="208"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="228"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="225"/>
       <c r="O8" s="208"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="228"/>
+      <c r="P8" s="226"/>
+      <c r="Q8" s="225"/>
       <c r="R8" s="208"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="228"/>
+      <c r="S8" s="226"/>
+      <c r="T8" s="225"/>
       <c r="U8" s="208"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="239"/>
+      <c r="V8" s="226"/>
+      <c r="W8" s="233"/>
     </row>
     <row r="9" spans="1:23" ht="24" customHeight="1">
-      <c r="A9" s="250">
+      <c r="A9" s="235">
         <v>38</v>
       </c>
       <c r="B9" s="176"/>
       <c r="C9" s="150"/>
-      <c r="D9" s="211"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="153"/>
       <c r="F9" s="150"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="216"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="214"/>
       <c r="I9" s="152"/>
       <c r="J9" s="206"/>
-      <c r="K9" s="228"/>
+      <c r="K9" s="225"/>
       <c r="L9" s="208"/>
-      <c r="M9" s="229"/>
-      <c r="N9" s="228"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="225"/>
       <c r="O9" s="208"/>
-      <c r="P9" s="229"/>
-      <c r="Q9" s="228"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="225"/>
       <c r="R9" s="208"/>
-      <c r="S9" s="229"/>
-      <c r="T9" s="228"/>
+      <c r="S9" s="226"/>
+      <c r="T9" s="225"/>
       <c r="U9" s="208"/>
-      <c r="V9" s="229"/>
-      <c r="W9" s="239"/>
+      <c r="V9" s="226"/>
+      <c r="W9" s="233"/>
     </row>
     <row r="10" spans="1:23" ht="24" customHeight="1">
-      <c r="A10" s="250">
+      <c r="A10" s="235">
         <v>39</v>
       </c>
       <c r="B10" s="176"/>
       <c r="C10" s="150"/>
-      <c r="D10" s="211"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="153"/>
       <c r="F10" s="150"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="216"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="214"/>
       <c r="I10" s="152"/>
       <c r="J10" s="206"/>
-      <c r="K10" s="228"/>
+      <c r="K10" s="225"/>
       <c r="L10" s="208"/>
-      <c r="M10" s="230"/>
-      <c r="N10" s="228"/>
+      <c r="M10" s="227"/>
+      <c r="N10" s="225"/>
       <c r="O10" s="208"/>
-      <c r="P10" s="229"/>
-      <c r="Q10" s="228"/>
+      <c r="P10" s="226"/>
+      <c r="Q10" s="225"/>
       <c r="R10" s="208"/>
-      <c r="S10" s="229"/>
-      <c r="T10" s="228"/>
+      <c r="S10" s="226"/>
+      <c r="T10" s="225"/>
       <c r="U10" s="208"/>
-      <c r="V10" s="229"/>
-      <c r="W10" s="239"/>
+      <c r="V10" s="226"/>
+      <c r="W10" s="233"/>
     </row>
     <row r="11" spans="1:23" ht="24" customHeight="1">
-      <c r="A11" s="250">
+      <c r="A11" s="235">
         <v>40</v>
       </c>
       <c r="B11" s="176"/>
       <c r="C11" s="150"/>
-      <c r="D11" s="211"/>
+      <c r="D11" s="209"/>
       <c r="E11" s="176"/>
       <c r="F11" s="150"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="216"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="214"/>
       <c r="I11" s="152"/>
       <c r="J11" s="206"/>
-      <c r="K11" s="228"/>
+      <c r="K11" s="225"/>
       <c r="L11" s="208"/>
-      <c r="M11" s="229"/>
-      <c r="N11" s="228"/>
+      <c r="M11" s="226"/>
+      <c r="N11" s="225"/>
       <c r="O11" s="208"/>
-      <c r="P11" s="229"/>
-      <c r="Q11" s="228"/>
+      <c r="P11" s="226"/>
+      <c r="Q11" s="225"/>
       <c r="R11" s="208"/>
-      <c r="S11" s="229"/>
-      <c r="T11" s="228"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="225"/>
       <c r="U11" s="208"/>
-      <c r="V11" s="229"/>
-      <c r="W11" s="239"/>
+      <c r="V11" s="226"/>
+      <c r="W11" s="233"/>
     </row>
     <row r="12" spans="1:23" ht="24" customHeight="1">
-      <c r="A12" s="250">
+      <c r="A12" s="235">
         <v>41</v>
       </c>
       <c r="B12" s="176"/>
       <c r="C12" s="150"/>
-      <c r="D12" s="211"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="153"/>
       <c r="F12" s="150"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="216"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="214"/>
       <c r="I12" s="152"/>
       <c r="J12" s="206"/>
-      <c r="K12" s="228"/>
+      <c r="K12" s="225"/>
       <c r="L12" s="208"/>
-      <c r="M12" s="229"/>
-      <c r="N12" s="228"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="225"/>
       <c r="O12" s="208"/>
-      <c r="P12" s="229"/>
-      <c r="Q12" s="228"/>
+      <c r="P12" s="226"/>
+      <c r="Q12" s="225"/>
       <c r="R12" s="208"/>
-      <c r="S12" s="229"/>
-      <c r="T12" s="228"/>
+      <c r="S12" s="226"/>
+      <c r="T12" s="225"/>
       <c r="U12" s="208"/>
-      <c r="V12" s="229"/>
-      <c r="W12" s="239"/>
+      <c r="V12" s="226"/>
+      <c r="W12" s="233"/>
     </row>
     <row r="13" spans="1:23" ht="24" customHeight="1">
-      <c r="A13" s="250">
+      <c r="A13" s="235">
         <v>42</v>
       </c>
       <c r="B13" s="176"/>
       <c r="C13" s="150"/>
-      <c r="D13" s="211"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="176"/>
       <c r="F13" s="150"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="216"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="214"/>
       <c r="I13" s="152"/>
       <c r="J13" s="206"/>
-      <c r="K13" s="228"/>
+      <c r="K13" s="225"/>
       <c r="L13" s="208"/>
-      <c r="M13" s="229"/>
-      <c r="N13" s="228"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="225"/>
       <c r="O13" s="208"/>
-      <c r="P13" s="229"/>
-      <c r="Q13" s="228"/>
+      <c r="P13" s="226"/>
+      <c r="Q13" s="225"/>
       <c r="R13" s="208"/>
-      <c r="S13" s="229"/>
-      <c r="T13" s="228"/>
+      <c r="S13" s="226"/>
+      <c r="T13" s="225"/>
       <c r="U13" s="208"/>
-      <c r="V13" s="229"/>
-      <c r="W13" s="239"/>
+      <c r="V13" s="226"/>
+      <c r="W13" s="233"/>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1">
-      <c r="A14" s="250">
+      <c r="A14" s="235">
         <v>43</v>
       </c>
       <c r="B14" s="176"/>
       <c r="C14" s="150"/>
-      <c r="D14" s="211"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="176"/>
       <c r="F14" s="150"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="216"/>
+      <c r="G14" s="215"/>
+      <c r="H14" s="214"/>
       <c r="I14" s="152"/>
       <c r="J14" s="206"/>
-      <c r="K14" s="228"/>
+      <c r="K14" s="225"/>
       <c r="L14" s="208"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="228"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="225"/>
       <c r="O14" s="208"/>
-      <c r="P14" s="229"/>
-      <c r="Q14" s="228"/>
+      <c r="P14" s="226"/>
+      <c r="Q14" s="225"/>
       <c r="R14" s="208"/>
-      <c r="S14" s="229"/>
-      <c r="T14" s="228"/>
+      <c r="S14" s="226"/>
+      <c r="T14" s="225"/>
       <c r="U14" s="208"/>
-      <c r="V14" s="229"/>
-      <c r="W14" s="239"/>
+      <c r="V14" s="226"/>
+      <c r="W14" s="233"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1">
-      <c r="A15" s="250">
+      <c r="A15" s="235">
         <v>44</v>
       </c>
       <c r="B15" s="176"/>
       <c r="C15" s="150"/>
-      <c r="D15" s="211"/>
+      <c r="D15" s="209"/>
       <c r="E15" s="153"/>
       <c r="F15" s="150"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="216"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="214"/>
       <c r="I15" s="152"/>
       <c r="J15" s="206"/>
-      <c r="K15" s="228"/>
+      <c r="K15" s="225"/>
       <c r="L15" s="208"/>
-      <c r="M15" s="229"/>
-      <c r="N15" s="228"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="225"/>
       <c r="O15" s="208"/>
-      <c r="P15" s="229"/>
-      <c r="Q15" s="228"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="225"/>
       <c r="R15" s="208"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="228"/>
+      <c r="S15" s="226"/>
+      <c r="T15" s="225"/>
       <c r="U15" s="208"/>
-      <c r="V15" s="229"/>
-      <c r="W15" s="239"/>
+      <c r="V15" s="226"/>
+      <c r="W15" s="233"/>
     </row>
     <row r="16" spans="1:23" ht="24" customHeight="1">
-      <c r="A16" s="250">
+      <c r="A16" s="235">
         <v>45</v>
       </c>
       <c r="B16" s="176"/>
       <c r="C16" s="150"/>
-      <c r="D16" s="211"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="176"/>
       <c r="F16" s="150"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="216"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="214"/>
       <c r="I16" s="152"/>
       <c r="J16" s="206"/>
-      <c r="K16" s="228"/>
+      <c r="K16" s="225"/>
       <c r="L16" s="208"/>
-      <c r="M16" s="229"/>
-      <c r="N16" s="228"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="225"/>
       <c r="O16" s="208"/>
-      <c r="P16" s="229"/>
-      <c r="Q16" s="228"/>
+      <c r="P16" s="226"/>
+      <c r="Q16" s="225"/>
       <c r="R16" s="208"/>
-      <c r="S16" s="229"/>
-      <c r="T16" s="228"/>
+      <c r="S16" s="226"/>
+      <c r="T16" s="225"/>
       <c r="U16" s="208"/>
-      <c r="V16" s="229"/>
-      <c r="W16" s="239"/>
+      <c r="V16" s="226"/>
+      <c r="W16" s="233"/>
     </row>
     <row r="17" spans="1:23" ht="24" customHeight="1">
-      <c r="A17" s="250">
+      <c r="A17" s="235">
         <v>46</v>
       </c>
       <c r="B17" s="176"/>
       <c r="C17" s="150"/>
-      <c r="D17" s="211"/>
+      <c r="D17" s="209"/>
       <c r="E17" s="176"/>
       <c r="F17" s="150"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="216"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="214"/>
       <c r="I17" s="152"/>
       <c r="J17" s="206"/>
-      <c r="K17" s="228"/>
+      <c r="K17" s="225"/>
       <c r="L17" s="208"/>
-      <c r="M17" s="229"/>
-      <c r="N17" s="228"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="225"/>
       <c r="O17" s="208"/>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="228"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="225"/>
       <c r="R17" s="208"/>
-      <c r="S17" s="229"/>
-      <c r="T17" s="228"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="225"/>
       <c r="U17" s="208"/>
-      <c r="V17" s="229"/>
-      <c r="W17" s="239"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="233"/>
     </row>
     <row r="18" spans="1:23" ht="24" customHeight="1">
-      <c r="A18" s="250">
+      <c r="A18" s="235">
         <v>47</v>
       </c>
       <c r="B18" s="176"/>
       <c r="C18" s="150"/>
-      <c r="D18" s="211"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="176"/>
       <c r="F18" s="150"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="216"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="214"/>
       <c r="I18" s="152"/>
       <c r="J18" s="206"/>
-      <c r="K18" s="228"/>
+      <c r="K18" s="225"/>
       <c r="L18" s="208"/>
-      <c r="M18" s="229"/>
-      <c r="N18" s="228"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="225"/>
       <c r="O18" s="208"/>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="228"/>
+      <c r="P18" s="226"/>
+      <c r="Q18" s="225"/>
       <c r="R18" s="208"/>
-      <c r="S18" s="229"/>
-      <c r="T18" s="228"/>
+      <c r="S18" s="226"/>
+      <c r="T18" s="225"/>
       <c r="U18" s="208"/>
-      <c r="V18" s="229"/>
-      <c r="W18" s="239"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="233"/>
     </row>
     <row r="19" spans="1:23" ht="24" customHeight="1">
-      <c r="A19" s="250">
+      <c r="A19" s="235">
         <v>48</v>
       </c>
       <c r="B19" s="176"/>
       <c r="C19" s="150"/>
-      <c r="D19" s="211"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="153"/>
       <c r="F19" s="150"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="216"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="214"/>
       <c r="I19" s="152"/>
       <c r="J19" s="206"/>
-      <c r="K19" s="228"/>
+      <c r="K19" s="225"/>
       <c r="L19" s="208"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="228"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="225"/>
       <c r="O19" s="208"/>
-      <c r="P19" s="229"/>
-      <c r="Q19" s="228"/>
+      <c r="P19" s="226"/>
+      <c r="Q19" s="225"/>
       <c r="R19" s="208"/>
-      <c r="S19" s="229"/>
-      <c r="T19" s="228"/>
+      <c r="S19" s="226"/>
+      <c r="T19" s="225"/>
       <c r="U19" s="208"/>
-      <c r="V19" s="229"/>
-      <c r="W19" s="239"/>
+      <c r="V19" s="226"/>
+      <c r="W19" s="233"/>
     </row>
     <row r="20" spans="1:23" ht="24" customHeight="1">
-      <c r="A20" s="250">
+      <c r="A20" s="235">
         <v>49</v>
       </c>
       <c r="B20" s="176"/>
       <c r="C20" s="150"/>
-      <c r="D20" s="211"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="153"/>
       <c r="F20" s="150"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="216"/>
+      <c r="G20" s="215"/>
+      <c r="H20" s="214"/>
       <c r="I20" s="152"/>
       <c r="J20" s="206"/>
-      <c r="K20" s="228"/>
+      <c r="K20" s="225"/>
       <c r="L20" s="208"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="228"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="225"/>
       <c r="O20" s="208"/>
-      <c r="P20" s="229"/>
-      <c r="Q20" s="228"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="225"/>
       <c r="R20" s="208"/>
-      <c r="S20" s="229"/>
-      <c r="T20" s="228"/>
+      <c r="S20" s="226"/>
+      <c r="T20" s="225"/>
       <c r="U20" s="208"/>
-      <c r="V20" s="229"/>
-      <c r="W20" s="239"/>
+      <c r="V20" s="226"/>
+      <c r="W20" s="233"/>
     </row>
     <row r="21" spans="1:23" ht="24" customHeight="1">
-      <c r="A21" s="250">
+      <c r="A21" s="235">
         <v>50</v>
       </c>
       <c r="B21" s="176"/>
       <c r="C21" s="150"/>
-      <c r="D21" s="211"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="176"/>
       <c r="F21" s="150"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="216"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="214"/>
       <c r="I21" s="152"/>
       <c r="J21" s="206"/>
-      <c r="K21" s="228"/>
+      <c r="K21" s="225"/>
       <c r="L21" s="208"/>
-      <c r="M21" s="229"/>
-      <c r="N21" s="228"/>
+      <c r="M21" s="226"/>
+      <c r="N21" s="225"/>
       <c r="O21" s="208"/>
-      <c r="P21" s="229"/>
-      <c r="Q21" s="228"/>
+      <c r="P21" s="226"/>
+      <c r="Q21" s="225"/>
       <c r="R21" s="208"/>
-      <c r="S21" s="229"/>
-      <c r="T21" s="228"/>
+      <c r="S21" s="226"/>
+      <c r="T21" s="225"/>
       <c r="U21" s="208"/>
-      <c r="V21" s="229"/>
-      <c r="W21" s="239"/>
+      <c r="V21" s="226"/>
+      <c r="W21" s="233"/>
     </row>
     <row r="22" spans="1:23" ht="24" customHeight="1">
-      <c r="A22" s="250">
+      <c r="A22" s="235">
         <v>51</v>
       </c>
       <c r="B22" s="176"/>
       <c r="C22" s="150"/>
-      <c r="D22" s="211"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="153"/>
       <c r="F22" s="150"/>
-      <c r="G22" s="218"/>
-      <c r="H22" s="216"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="214"/>
       <c r="I22" s="152"/>
       <c r="J22" s="206"/>
-      <c r="K22" s="228"/>
+      <c r="K22" s="225"/>
       <c r="L22" s="208"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="228"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="225"/>
       <c r="O22" s="208"/>
-      <c r="P22" s="229"/>
-      <c r="Q22" s="228"/>
+      <c r="P22" s="226"/>
+      <c r="Q22" s="225"/>
       <c r="R22" s="208"/>
-      <c r="S22" s="229"/>
-      <c r="T22" s="228"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="225"/>
       <c r="U22" s="208"/>
-      <c r="V22" s="229"/>
-      <c r="W22" s="239"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="233"/>
     </row>
     <row r="23" spans="1:23" ht="24" customHeight="1">
-      <c r="A23" s="250">
+      <c r="A23" s="235">
         <v>52</v>
       </c>
       <c r="B23" s="176"/>
       <c r="C23" s="158"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="219"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="216"/>
       <c r="F23" s="150"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="216"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="214"/>
       <c r="I23" s="152"/>
       <c r="J23" s="206"/>
-      <c r="K23" s="228"/>
+      <c r="K23" s="225"/>
       <c r="L23" s="208"/>
-      <c r="M23" s="229"/>
-      <c r="N23" s="228"/>
+      <c r="M23" s="226"/>
+      <c r="N23" s="225"/>
       <c r="O23" s="208"/>
-      <c r="P23" s="229"/>
-      <c r="Q23" s="228"/>
+      <c r="P23" s="226"/>
+      <c r="Q23" s="225"/>
       <c r="R23" s="208"/>
-      <c r="S23" s="229"/>
-      <c r="T23" s="228"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="225"/>
       <c r="U23" s="208"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="239"/>
+      <c r="V23" s="226"/>
+      <c r="W23" s="233"/>
     </row>
     <row r="24" spans="1:23" ht="24" customHeight="1">
-      <c r="A24" s="250">
+      <c r="A24" s="235">
         <v>53</v>
       </c>
       <c r="B24" s="176"/>
       <c r="C24" s="158"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="219"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="216"/>
       <c r="F24" s="150"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="216"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="214"/>
       <c r="I24" s="152"/>
       <c r="J24" s="206"/>
-      <c r="K24" s="228"/>
+      <c r="K24" s="225"/>
       <c r="L24" s="208"/>
-      <c r="M24" s="229"/>
-      <c r="N24" s="228"/>
+      <c r="M24" s="226"/>
+      <c r="N24" s="225"/>
       <c r="O24" s="208"/>
-      <c r="P24" s="229"/>
-      <c r="Q24" s="228"/>
+      <c r="P24" s="226"/>
+      <c r="Q24" s="225"/>
       <c r="R24" s="208"/>
-      <c r="S24" s="229"/>
-      <c r="T24" s="228"/>
+      <c r="S24" s="226"/>
+      <c r="T24" s="225"/>
       <c r="U24" s="208"/>
-      <c r="V24" s="229"/>
-      <c r="W24" s="239"/>
+      <c r="V24" s="226"/>
+      <c r="W24" s="233"/>
     </row>
     <row r="25" spans="1:23" ht="24" customHeight="1" thickBot="1">
-      <c r="A25" s="251">
+      <c r="A25" s="236">
         <v>54</v>
       </c>
-      <c r="B25" s="213"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="244"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="228"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="219"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="225"/>
       <c r="L25" s="208"/>
-      <c r="M25" s="229"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="235"/>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="228"/>
+      <c r="M25" s="226"/>
+      <c r="N25" s="228"/>
+      <c r="O25" s="229"/>
+      <c r="P25" s="230"/>
+      <c r="Q25" s="225"/>
       <c r="R25" s="208"/>
-      <c r="S25" s="229"/>
-      <c r="T25" s="228"/>
+      <c r="S25" s="226"/>
+      <c r="T25" s="225"/>
       <c r="U25" s="208"/>
-      <c r="V25" s="229"/>
-      <c r="W25" s="239"/>
+      <c r="V25" s="226"/>
+      <c r="W25" s="233"/>
     </row>
     <row r="26" spans="1:23" ht="24" customHeight="1" thickBot="1">
-      <c r="A26" s="252"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="231"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="248"/>
-      <c r="P26" s="249"/>
-      <c r="Q26" s="231"/>
-      <c r="R26" s="232"/>
-      <c r="S26" s="233"/>
-      <c r="T26" s="231"/>
-      <c r="U26" s="232"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="240"/>
+      <c r="A26" s="316"/>
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="317"/>
+      <c r="K26" s="317"/>
+      <c r="L26" s="317"/>
+      <c r="M26" s="317"/>
+      <c r="N26" s="317"/>
+      <c r="O26" s="317"/>
+      <c r="P26" s="317"/>
+      <c r="Q26" s="317"/>
+      <c r="R26" s="317"/>
+      <c r="S26" s="317"/>
+      <c r="T26" s="317"/>
+      <c r="U26" s="317"/>
+      <c r="V26" s="317"/>
+      <c r="W26" s="318"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="63"/>
@@ -9451,9 +9402,7 @@
       <c r="F28" s="162"/>
       <c r="G28" s="147"/>
       <c r="H28" s="147"/>
-      <c r="I28" s="147" t="s">
-        <v>70</v>
-      </c>
+      <c r="I28" s="147"/>
       <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:23">
@@ -9593,7 +9542,7 @@
       <c r="B59" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -9605,6 +9554,7 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:I25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -9652,126 +9602,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="324"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
+      <c r="A2" s="290"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="315"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
     </row>
     <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
-      <c r="Q4" s="325"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
+      <c r="K4" s="291"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="291"/>
+      <c r="O4" s="291"/>
+      <c r="P4" s="291"/>
+      <c r="Q4" s="291"/>
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="326" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="327"/>
+      <c r="A5" s="292" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="293"/>
       <c r="C5" s="193"/>
       <c r="D5" s="194" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="194"/>
-      <c r="F5" s="322" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="322"/>
-      <c r="P5" s="322"/>
-      <c r="Q5" s="323"/>
-      <c r="T5" s="321" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5" s="322"/>
-      <c r="V5" s="323"/>
+      <c r="F5" s="288" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="289"/>
+      <c r="T5" s="287" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="288"/>
+      <c r="V5" s="289"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="195" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="196" t="s">
-        <v>74</v>
       </c>
       <c r="D6" s="195" t="s">
         <v>49</v>
@@ -9813,13 +9763,13 @@
         <v>61</v>
       </c>
       <c r="Q6" s="200" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T6" s="165" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V6" s="165" t="s">
         <v>44</v>
@@ -9830,10 +9780,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="167" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="151"/>
       <c r="E7" s="150"/>
@@ -9850,7 +9800,7 @@
       <c r="P7" s="170"/>
       <c r="Q7" s="168"/>
       <c r="T7" s="188" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U7" s="188">
         <v>129</v>
@@ -9864,10 +9814,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="150" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>79</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="150"/>
@@ -9884,7 +9834,7 @@
       <c r="P8" s="170"/>
       <c r="Q8" s="168"/>
       <c r="T8" s="188" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U8" s="188">
         <v>196</v>
@@ -9898,10 +9848,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="150" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="150"/>
@@ -9927,10 +9877,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="150" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="154"/>
       <c r="E10" s="150"/>
@@ -9946,18 +9896,18 @@
       <c r="O10" s="174"/>
       <c r="P10" s="170"/>
       <c r="Q10" s="175"/>
-      <c r="T10" s="328" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="329"/>
-      <c r="V10" s="330"/>
+      <c r="T10" s="294" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="295"/>
+      <c r="V10" s="296"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1">
       <c r="A11" s="153">
         <v>5</v>
       </c>
       <c r="B11" s="167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="150" t="s">
         <v>65</v>
@@ -9983,7 +9933,7 @@
       </c>
       <c r="Q11" s="175"/>
       <c r="T11" s="188" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U11" s="188">
         <v>3</v>
@@ -9998,7 +9948,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="150" t="s">
         <v>67</v>
@@ -10026,7 +9976,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="150" t="s">
         <v>68</v>
@@ -10045,18 +9995,18 @@
       <c r="O13" s="170"/>
       <c r="P13" s="170"/>
       <c r="Q13" s="175"/>
-      <c r="T13" s="328" t="s">
-        <v>128</v>
-      </c>
-      <c r="U13" s="329"/>
-      <c r="V13" s="330"/>
+      <c r="T13" s="294" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="295"/>
+      <c r="V13" s="296"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1">
       <c r="A14" s="176">
         <v>8</v>
       </c>
       <c r="B14" s="167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="150" t="s">
         <v>69</v>
@@ -10076,7 +10026,7 @@
       <c r="P14" s="170"/>
       <c r="Q14" s="175"/>
       <c r="T14" s="188" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U14" s="188">
         <v>6</v>
@@ -10091,7 +10041,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="151" t="s">
         <v>62</v>
@@ -10127,7 +10077,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="150" t="s">
         <v>64</v>
@@ -10149,10 +10099,10 @@
     </row>
     <row r="17" spans="1:21" ht="18.75">
       <c r="A17" s="153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="151" t="s">
         <v>63</v>
@@ -10190,7 +10140,7 @@
         <v>6552</v>
       </c>
       <c r="U17" s="147" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="18.75">
@@ -10198,7 +10148,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="150" t="s">
         <v>66</v>
@@ -10224,7 +10174,7 @@
         <v>113454</v>
       </c>
       <c r="U18" s="147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.75">
@@ -10253,7 +10203,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="178"/>
@@ -10421,11 +10371,11 @@
       <c r="Q27" s="175"/>
     </row>
     <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="318" t="s">
+      <c r="A28" s="284" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="319"/>
-      <c r="C28" s="320"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="286"/>
       <c r="D28" s="201">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -11148,7 +11098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
@@ -11177,126 +11127,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="324"/>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="324"/>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
+      <c r="A2" s="290"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
     </row>
     <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="315"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
     </row>
     <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="325"/>
-      <c r="C4" s="325"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
-      <c r="K4" s="325"/>
-      <c r="L4" s="325"/>
-      <c r="M4" s="325"/>
-      <c r="N4" s="325"/>
-      <c r="O4" s="325"/>
-      <c r="P4" s="325"/>
-      <c r="Q4" s="325"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="291"/>
+      <c r="K4" s="291"/>
+      <c r="L4" s="291"/>
+      <c r="M4" s="291"/>
+      <c r="N4" s="291"/>
+      <c r="O4" s="291"/>
+      <c r="P4" s="291"/>
+      <c r="Q4" s="291"/>
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="326" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="327"/>
+      <c r="A5" s="292" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="293"/>
       <c r="C5" s="193"/>
       <c r="D5" s="194" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="194"/>
-      <c r="F5" s="322" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="322"/>
-      <c r="P5" s="322"/>
-      <c r="Q5" s="323"/>
-      <c r="T5" s="321" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5" s="322"/>
-      <c r="V5" s="323"/>
+      <c r="F5" s="288" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="289"/>
+      <c r="T5" s="287" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="288"/>
+      <c r="V5" s="289"/>
     </row>
     <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="195" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="196" t="s">
-        <v>74</v>
       </c>
       <c r="D6" s="195" t="s">
         <v>49</v>
@@ -11338,13 +11288,13 @@
         <v>61</v>
       </c>
       <c r="Q6" s="200" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T6" s="165" t="s">
         <v>12</v>
       </c>
       <c r="U6" s="165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V6" s="165" t="s">
         <v>44</v>
@@ -11355,10 +11305,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="167" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="150" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="151"/>
       <c r="E7" s="150"/>
@@ -11375,7 +11325,7 @@
       <c r="P7" s="170"/>
       <c r="Q7" s="168"/>
       <c r="T7" s="188" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U7" s="188">
         <v>129</v>
@@ -11389,10 +11339,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="150" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>79</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="150"/>
@@ -11417,7 +11367,7 @@
       </c>
       <c r="Q8" s="168"/>
       <c r="T8" s="188" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U8" s="188">
         <v>196</v>
@@ -11431,10 +11381,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="150" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="154"/>
       <c r="E9" s="150"/>
@@ -11468,10 +11418,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="150" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="150" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="154"/>
       <c r="E10" s="150"/>
@@ -11487,18 +11437,18 @@
       <c r="O10" s="174"/>
       <c r="P10" s="170"/>
       <c r="Q10" s="175"/>
-      <c r="T10" s="328" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="329"/>
-      <c r="V10" s="330"/>
+      <c r="T10" s="294" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="295"/>
+      <c r="V10" s="296"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1">
       <c r="A11" s="153">
         <v>5</v>
       </c>
       <c r="B11" s="167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="150" t="s">
         <v>65</v>
@@ -11524,7 +11474,7 @@
       </c>
       <c r="Q11" s="175"/>
       <c r="T11" s="188" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U11" s="188">
         <v>3</v>
@@ -11539,7 +11489,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="150" t="s">
         <v>67</v>
@@ -11567,7 +11517,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="150" t="s">
         <v>68</v>
@@ -11586,18 +11536,18 @@
       <c r="O13" s="170"/>
       <c r="P13" s="170"/>
       <c r="Q13" s="175"/>
-      <c r="T13" s="328" t="s">
-        <v>128</v>
-      </c>
-      <c r="U13" s="329"/>
-      <c r="V13" s="330"/>
+      <c r="T13" s="294" t="s">
+        <v>126</v>
+      </c>
+      <c r="U13" s="295"/>
+      <c r="V13" s="296"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1">
       <c r="A14" s="176">
         <v>8</v>
       </c>
       <c r="B14" s="167" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="150" t="s">
         <v>69</v>
@@ -11617,7 +11567,7 @@
       <c r="P14" s="170"/>
       <c r="Q14" s="175"/>
       <c r="T14" s="188" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U14" s="188">
         <v>6</v>
@@ -11632,7 +11582,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="151" t="s">
         <v>62</v>
@@ -11668,7 +11618,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="150" t="s">
         <v>64</v>
@@ -11690,10 +11640,10 @@
     </row>
     <row r="17" spans="1:21" ht="18.75">
       <c r="A17" s="153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="151" t="s">
         <v>63</v>
@@ -11731,7 +11681,7 @@
         <v>6552</v>
       </c>
       <c r="U17" s="147" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="18.75">
@@ -11739,7 +11689,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="150" t="s">
         <v>66</v>
@@ -11765,7 +11715,7 @@
         <v>113454</v>
       </c>
       <c r="U18" s="147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="18.75">
@@ -11794,7 +11744,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="150"/>
       <c r="D20" s="178"/>
@@ -11962,11 +11912,11 @@
       <c r="Q27" s="175"/>
     </row>
     <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="318" t="s">
+      <c r="A28" s="284" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="319"/>
-      <c r="C28" s="320"/>
+      <c r="B28" s="285"/>
+      <c r="C28" s="286"/>
       <c r="D28" s="201">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>

--- a/March'21/01.03.2021/Bank Statement.xlsx
+++ b/March'21/01.03.2021/Bank Statement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Allocation!$A$1:$W$26</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -603,12 +603,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2419,6 +2419,45 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,12 +2476,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2543,6 +2576,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2554,6 +2602,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2597,72 +2663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2688,6 +2688,11 @@
       <color rgb="FFD8D8D8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2896,6 +2901,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2930,6 +2936,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3105,85 +3112,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="9.140625" style="97"/>
     <col min="18" max="18" width="9.140625" style="98"/>
     <col min="19" max="16384" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="237" t="s">
+    <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
-    </row>
-    <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="238" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="251" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-    </row>
-    <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="249" t="s">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
+      <c r="R2" s="251"/>
+    </row>
+    <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="261"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="261"/>
+      <c r="L3" s="261"/>
+      <c r="M3" s="261"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="261"/>
+      <c r="P3" s="261"/>
+      <c r="Q3" s="261"/>
+      <c r="R3" s="262"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3191,56 +3198,56 @@
       <c r="X3" s="101"/>
       <c r="Y3" s="102"/>
     </row>
-    <row r="4" spans="1:25" s="102" customFormat="1">
-      <c r="A4" s="239" t="s">
+    <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="254" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="254" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="243" t="s">
+      <c r="E4" s="248" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="243" t="s">
+      <c r="G4" s="248" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="243" t="s">
+      <c r="H4" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="243" t="s">
+      <c r="I4" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="243" t="s">
+      <c r="J4" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="252" t="s">
+      <c r="K4" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="254" t="s">
+      <c r="L4" s="265" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="256" t="s">
+      <c r="M4" s="267" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="258" t="s">
+      <c r="N4" s="269" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="260" t="s">
+      <c r="O4" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="245" t="s">
+      <c r="P4" s="256" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="247" t="s">
+      <c r="Q4" s="258" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3252,24 +3259,24 @@
       <c r="W4" s="101"/>
       <c r="X4" s="101"/>
     </row>
-    <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="259"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="248"/>
+    <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="253"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="264"/>
+      <c r="L5" s="266"/>
+      <c r="M5" s="268"/>
+      <c r="N5" s="270"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="259"/>
       <c r="R5" s="105" t="s">
         <v>36</v>
       </c>
@@ -3280,7 +3287,7 @@
       <c r="X5" s="107"/>
       <c r="Y5" s="108"/>
     </row>
-    <row r="6" spans="1:25" s="108" customFormat="1">
+    <row r="6" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
         <v>131</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="W6" s="107"/>
       <c r="X6" s="101"/>
     </row>
-    <row r="7" spans="1:25" s="108" customFormat="1">
+    <row r="7" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="109"/>
       <c r="B7" s="110"/>
       <c r="C7" s="111"/>
@@ -3342,7 +3349,7 @@
       <c r="W7" s="107"/>
       <c r="X7" s="107"/>
     </row>
-    <row r="8" spans="1:25" s="108" customFormat="1">
+    <row r="8" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="109"/>
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
@@ -3373,7 +3380,7 @@
       <c r="W8" s="107"/>
       <c r="X8" s="101"/>
     </row>
-    <row r="9" spans="1:25" s="108" customFormat="1">
+    <row r="9" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="109"/>
       <c r="B9" s="115"/>
       <c r="C9" s="116"/>
@@ -3402,7 +3409,7 @@
       <c r="W9" s="107"/>
       <c r="X9" s="107"/>
     </row>
-    <row r="10" spans="1:25" s="108" customFormat="1">
+    <row r="10" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="109"/>
       <c r="B10" s="115"/>
       <c r="C10" s="116"/>
@@ -3431,7 +3438,7 @@
       <c r="W10" s="107"/>
       <c r="X10" s="101"/>
     </row>
-    <row r="11" spans="1:25" s="108" customFormat="1">
+    <row r="11" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="109"/>
       <c r="B11" s="115"/>
       <c r="C11" s="116"/>
@@ -3460,7 +3467,7 @@
       <c r="W11" s="107"/>
       <c r="X11" s="107"/>
     </row>
-    <row r="12" spans="1:25" s="108" customFormat="1">
+    <row r="12" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="109"/>
       <c r="B12" s="115"/>
       <c r="C12" s="116"/>
@@ -3489,7 +3496,7 @@
       <c r="W12" s="107"/>
       <c r="X12" s="101"/>
     </row>
-    <row r="13" spans="1:25" s="108" customFormat="1">
+    <row r="13" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="109"/>
       <c r="B13" s="115"/>
       <c r="C13" s="116"/>
@@ -3518,7 +3525,7 @@
       <c r="W13" s="107"/>
       <c r="X13" s="107"/>
     </row>
-    <row r="14" spans="1:25" s="108" customFormat="1">
+    <row r="14" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="109"/>
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
@@ -3547,7 +3554,7 @@
       <c r="W14" s="107"/>
       <c r="X14" s="101"/>
     </row>
-    <row r="15" spans="1:25" s="108" customFormat="1">
+    <row r="15" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="109"/>
       <c r="B15" s="115"/>
       <c r="C15" s="116"/>
@@ -3576,7 +3583,7 @@
       <c r="W15" s="107"/>
       <c r="X15" s="107"/>
     </row>
-    <row r="16" spans="1:25" s="108" customFormat="1">
+    <row r="16" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109"/>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
@@ -3605,7 +3612,7 @@
       <c r="W16" s="107"/>
       <c r="X16" s="101"/>
     </row>
-    <row r="17" spans="1:24" s="108" customFormat="1">
+    <row r="17" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="109"/>
       <c r="B17" s="115"/>
       <c r="C17" s="116"/>
@@ -3634,7 +3641,7 @@
       <c r="W17" s="107"/>
       <c r="X17" s="107"/>
     </row>
-    <row r="18" spans="1:24" s="108" customFormat="1">
+    <row r="18" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="109"/>
       <c r="B18" s="115"/>
       <c r="C18" s="116"/>
@@ -3663,7 +3670,7 @@
       <c r="W18" s="107"/>
       <c r="X18" s="101"/>
     </row>
-    <row r="19" spans="1:24" s="108" customFormat="1">
+    <row r="19" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
@@ -3692,7 +3699,7 @@
       <c r="W19" s="107"/>
       <c r="X19" s="107"/>
     </row>
-    <row r="20" spans="1:24" s="108" customFormat="1">
+    <row r="20" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="109"/>
       <c r="B20" s="115"/>
       <c r="C20" s="116"/>
@@ -3721,7 +3728,7 @@
       <c r="W20" s="107"/>
       <c r="X20" s="101"/>
     </row>
-    <row r="21" spans="1:24" s="108" customFormat="1">
+    <row r="21" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="109"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
@@ -3746,7 +3753,7 @@
       <c r="S21" s="114"/>
       <c r="T21" s="69"/>
     </row>
-    <row r="22" spans="1:24" s="108" customFormat="1">
+    <row r="22" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109"/>
       <c r="B22" s="115"/>
       <c r="C22" s="116"/>
@@ -3771,7 +3778,7 @@
       <c r="S22" s="114"/>
       <c r="T22" s="69"/>
     </row>
-    <row r="23" spans="1:24" s="117" customFormat="1">
+    <row r="23" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="109"/>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
@@ -3796,7 +3803,7 @@
       <c r="S23" s="121"/>
       <c r="T23" s="69"/>
     </row>
-    <row r="24" spans="1:24" s="108" customFormat="1">
+    <row r="24" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="109"/>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
@@ -3824,7 +3831,7 @@
       <c r="W24" s="122"/>
       <c r="X24" s="122"/>
     </row>
-    <row r="25" spans="1:24" s="117" customFormat="1">
+    <row r="25" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="109"/>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
@@ -3849,7 +3856,7 @@
       <c r="S25" s="121"/>
       <c r="T25" s="69"/>
     </row>
-    <row r="26" spans="1:24" s="108" customFormat="1">
+    <row r="26" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="109"/>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
@@ -3874,7 +3881,7 @@
       <c r="S26" s="114"/>
       <c r="T26" s="69"/>
     </row>
-    <row r="27" spans="1:24" s="108" customFormat="1">
+    <row r="27" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
@@ -3899,7 +3906,7 @@
       <c r="S27" s="114"/>
       <c r="T27" s="69"/>
     </row>
-    <row r="28" spans="1:24" s="108" customFormat="1">
+    <row r="28" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
       <c r="B28" s="115"/>
       <c r="C28" s="116"/>
@@ -3926,7 +3933,7 @@
       <c r="U28" s="123"/>
       <c r="V28" s="123"/>
     </row>
-    <row r="29" spans="1:24" s="108" customFormat="1">
+    <row r="29" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
@@ -3953,7 +3960,7 @@
       <c r="U29" s="124"/>
       <c r="V29" s="124"/>
     </row>
-    <row r="30" spans="1:24" s="108" customFormat="1">
+    <row r="30" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
@@ -3980,7 +3987,7 @@
       <c r="U30" s="123"/>
       <c r="V30" s="123"/>
     </row>
-    <row r="31" spans="1:24" s="108" customFormat="1">
+    <row r="31" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
@@ -4004,7 +4011,7 @@
       </c>
       <c r="S31" s="114"/>
     </row>
-    <row r="32" spans="1:24" s="117" customFormat="1">
+    <row r="32" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
       <c r="B32" s="115"/>
       <c r="C32" s="116"/>
@@ -4028,7 +4035,7 @@
       </c>
       <c r="S32" s="121"/>
     </row>
-    <row r="33" spans="1:19" s="108" customFormat="1">
+    <row r="33" spans="1:19" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116"/>
       <c r="B33" s="115"/>
       <c r="C33" s="116"/>
@@ -4052,7 +4059,7 @@
       </c>
       <c r="S33" s="114"/>
     </row>
-    <row r="34" spans="1:19" s="108" customFormat="1">
+    <row r="34" spans="1:19" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="116"/>
       <c r="B34" s="115"/>
       <c r="C34" s="116"/>
@@ -4076,7 +4083,7 @@
       </c>
       <c r="S34" s="114"/>
     </row>
-    <row r="35" spans="1:19" s="108" customFormat="1">
+    <row r="35" spans="1:19" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116"/>
       <c r="B35" s="115"/>
       <c r="C35" s="116"/>
@@ -4100,7 +4107,7 @@
       </c>
       <c r="S35" s="114"/>
     </row>
-    <row r="36" spans="1:19" s="108" customFormat="1" ht="15.75" thickBot="1">
+    <row r="36" spans="1:19" s="108" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
       <c r="B36" s="126"/>
       <c r="C36" s="127"/>
@@ -4124,7 +4131,7 @@
       </c>
       <c r="S36" s="114"/>
     </row>
-    <row r="37" spans="1:19" s="135" customFormat="1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:19" s="135" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="130" t="s">
         <v>38</v>
       </c>
@@ -4197,7 +4204,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="136"/>
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
@@ -4217,1972 +4224,1972 @@
       <c r="Q38" s="138"/>
       <c r="R38" s="139"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F39" s="140"/>
       <c r="G39" s="140"/>
       <c r="H39" s="140"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="140"/>
       <c r="B40" s="140"/>
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
       <c r="E40" s="140"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="140"/>
       <c r="B41" s="140"/>
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="140"/>
       <c r="B42" s="140"/>
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="140"/>
       <c r="B43" s="140"/>
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="140"/>
       <c r="B44" s="140"/>
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
       <c r="E44" s="140"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="140"/>
       <c r="B45" s="140"/>
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
       <c r="E45" s="140"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="140"/>
       <c r="B46" s="140"/>
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="140"/>
       <c r="B47" s="140"/>
       <c r="C47" s="140"/>
       <c r="D47" s="140"/>
       <c r="E47" s="140"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="140"/>
       <c r="B48" s="140"/>
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="140"/>
       <c r="B49" s="140"/>
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="140"/>
       <c r="B50" s="140"/>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="140"/>
       <c r="B51" s="140"/>
       <c r="C51" s="140"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="140"/>
       <c r="B52" s="140"/>
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="140"/>
       <c r="B53" s="140"/>
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="140"/>
       <c r="B54" s="140"/>
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="140"/>
       <c r="B55" s="140"/>
       <c r="C55" s="140"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="140"/>
       <c r="B56" s="140"/>
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="140"/>
       <c r="B57" s="140"/>
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="140"/>
       <c r="B58" s="140"/>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="140"/>
       <c r="B59" s="140"/>
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="140"/>
       <c r="B60" s="140"/>
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="140"/>
       <c r="B61" s="140"/>
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="140"/>
       <c r="B62" s="140"/>
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="140"/>
       <c r="B63" s="140"/>
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="140"/>
       <c r="B64" s="140"/>
       <c r="C64" s="140"/>
       <c r="D64" s="140"/>
       <c r="E64" s="140"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="140"/>
       <c r="B65" s="140"/>
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="140"/>
       <c r="B66" s="140"/>
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="140"/>
       <c r="B67" s="140"/>
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="140"/>
       <c r="B68" s="140"/>
       <c r="C68" s="140"/>
       <c r="D68" s="140"/>
       <c r="E68" s="140"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="140"/>
       <c r="B69" s="140"/>
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="140"/>
       <c r="B70" s="140"/>
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="140"/>
       <c r="B71" s="140"/>
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="140"/>
       <c r="B72" s="140"/>
       <c r="C72" s="140"/>
       <c r="D72" s="140"/>
       <c r="E72" s="140"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="140"/>
       <c r="B73" s="140"/>
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="140"/>
       <c r="B74" s="140"/>
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="140"/>
       <c r="B75" s="140"/>
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
       <c r="E75" s="140"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="140"/>
       <c r="B76" s="140"/>
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="140"/>
       <c r="B77" s="140"/>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="140"/>
       <c r="B78" s="140"/>
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
       <c r="E78" s="140"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="140"/>
       <c r="B79" s="140"/>
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="140"/>
       <c r="B80" s="140"/>
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
       <c r="E80" s="140"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="140"/>
       <c r="B81" s="140"/>
       <c r="C81" s="140"/>
       <c r="D81" s="140"/>
       <c r="E81" s="140"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="140"/>
       <c r="B82" s="140"/>
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="140"/>
       <c r="B83" s="140"/>
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="140"/>
       <c r="B84" s="140"/>
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
       <c r="E84" s="140"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="140"/>
       <c r="B85" s="140"/>
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
       <c r="E85" s="140"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="140"/>
       <c r="B86" s="140"/>
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
       <c r="E86" s="140"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="140"/>
       <c r="B87" s="140"/>
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
       <c r="E87" s="140"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="140"/>
       <c r="B88" s="140"/>
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
       <c r="E88" s="140"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="140"/>
       <c r="B89" s="140"/>
       <c r="C89" s="140"/>
       <c r="D89" s="140"/>
       <c r="E89" s="140"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="140"/>
       <c r="B90" s="140"/>
       <c r="C90" s="140"/>
       <c r="D90" s="140"/>
       <c r="E90" s="140"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="140"/>
       <c r="B91" s="140"/>
       <c r="C91" s="140"/>
       <c r="D91" s="140"/>
       <c r="E91" s="140"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="140"/>
       <c r="B92" s="140"/>
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
       <c r="E92" s="140"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="140"/>
       <c r="B93" s="140"/>
       <c r="C93" s="140"/>
       <c r="D93" s="140"/>
       <c r="E93" s="140"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="140"/>
       <c r="B94" s="140"/>
       <c r="C94" s="140"/>
       <c r="D94" s="140"/>
       <c r="E94" s="140"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="140"/>
       <c r="B95" s="140"/>
       <c r="C95" s="140"/>
       <c r="D95" s="140"/>
       <c r="E95" s="140"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="140"/>
       <c r="B96" s="140"/>
       <c r="C96" s="140"/>
       <c r="D96" s="140"/>
       <c r="E96" s="140"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="140"/>
       <c r="B97" s="140"/>
       <c r="C97" s="140"/>
       <c r="D97" s="140"/>
       <c r="E97" s="140"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="140"/>
       <c r="B98" s="140"/>
       <c r="C98" s="140"/>
       <c r="D98" s="140"/>
       <c r="E98" s="140"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="140"/>
       <c r="B99" s="140"/>
       <c r="C99" s="140"/>
       <c r="D99" s="140"/>
       <c r="E99" s="140"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="140"/>
       <c r="B100" s="140"/>
       <c r="C100" s="140"/>
       <c r="D100" s="140"/>
       <c r="E100" s="140"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="140"/>
       <c r="B101" s="140"/>
       <c r="C101" s="140"/>
       <c r="D101" s="140"/>
       <c r="E101" s="140"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="140"/>
       <c r="B102" s="140"/>
       <c r="C102" s="140"/>
       <c r="D102" s="140"/>
       <c r="E102" s="140"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="140"/>
       <c r="B103" s="140"/>
       <c r="C103" s="140"/>
       <c r="D103" s="140"/>
       <c r="E103" s="140"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="140"/>
       <c r="B104" s="140"/>
       <c r="C104" s="140"/>
       <c r="D104" s="140"/>
       <c r="E104" s="140"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="140"/>
       <c r="B105" s="140"/>
       <c r="C105" s="140"/>
       <c r="D105" s="140"/>
       <c r="E105" s="140"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="140"/>
       <c r="B106" s="140"/>
       <c r="C106" s="140"/>
       <c r="D106" s="140"/>
       <c r="E106" s="140"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="140"/>
       <c r="B107" s="140"/>
       <c r="C107" s="140"/>
       <c r="D107" s="140"/>
       <c r="E107" s="140"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="140"/>
       <c r="B108" s="140"/>
       <c r="C108" s="140"/>
       <c r="D108" s="140"/>
       <c r="E108" s="140"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="140"/>
       <c r="B109" s="140"/>
       <c r="C109" s="140"/>
       <c r="D109" s="140"/>
       <c r="E109" s="140"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="140"/>
       <c r="B110" s="140"/>
       <c r="C110" s="140"/>
       <c r="D110" s="140"/>
       <c r="E110" s="140"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="140"/>
       <c r="B111" s="140"/>
       <c r="C111" s="140"/>
       <c r="D111" s="140"/>
       <c r="E111" s="140"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="140"/>
       <c r="B112" s="140"/>
       <c r="C112" s="140"/>
       <c r="D112" s="140"/>
       <c r="E112" s="140"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="140"/>
       <c r="B113" s="140"/>
       <c r="C113" s="140"/>
       <c r="D113" s="140"/>
       <c r="E113" s="140"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="140"/>
       <c r="B114" s="140"/>
       <c r="C114" s="140"/>
       <c r="D114" s="140"/>
       <c r="E114" s="140"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="140"/>
       <c r="B115" s="140"/>
       <c r="C115" s="140"/>
       <c r="D115" s="140"/>
       <c r="E115" s="140"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="140"/>
       <c r="B116" s="140"/>
       <c r="C116" s="140"/>
       <c r="D116" s="140"/>
       <c r="E116" s="140"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="140"/>
       <c r="B117" s="140"/>
       <c r="C117" s="140"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="140"/>
       <c r="B118" s="140"/>
       <c r="C118" s="140"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="140"/>
       <c r="B119" s="140"/>
       <c r="C119" s="140"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="140"/>
       <c r="B120" s="140"/>
       <c r="C120" s="140"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="140"/>
       <c r="B121" s="140"/>
       <c r="C121" s="140"/>
       <c r="D121" s="140"/>
       <c r="E121" s="140"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="140"/>
       <c r="B122" s="140"/>
       <c r="C122" s="140"/>
       <c r="D122" s="140"/>
       <c r="E122" s="140"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="140"/>
       <c r="B123" s="140"/>
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
       <c r="E123" s="140"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="140"/>
       <c r="B124" s="140"/>
       <c r="C124" s="140"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="140"/>
       <c r="B125" s="140"/>
       <c r="C125" s="140"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="140"/>
       <c r="B126" s="140"/>
       <c r="C126" s="140"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="140"/>
       <c r="B127" s="140"/>
       <c r="C127" s="140"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="140"/>
       <c r="B128" s="140"/>
       <c r="C128" s="140"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="140"/>
       <c r="B129" s="140"/>
       <c r="C129" s="140"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="140"/>
       <c r="B130" s="140"/>
       <c r="C130" s="140"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="140"/>
       <c r="B131" s="140"/>
       <c r="C131" s="140"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="140"/>
       <c r="B132" s="140"/>
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="140"/>
       <c r="B133" s="140"/>
       <c r="C133" s="140"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="140"/>
       <c r="B134" s="140"/>
       <c r="C134" s="140"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="140"/>
       <c r="B135" s="140"/>
       <c r="C135" s="140"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="140"/>
       <c r="B136" s="140"/>
       <c r="C136" s="140"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="140"/>
       <c r="B137" s="140"/>
       <c r="C137" s="140"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="140"/>
       <c r="B138" s="140"/>
       <c r="C138" s="140"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="140"/>
       <c r="B139" s="140"/>
       <c r="C139" s="140"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="140"/>
       <c r="B140" s="140"/>
       <c r="C140" s="140"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="140"/>
       <c r="B141" s="140"/>
       <c r="C141" s="140"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="140"/>
       <c r="B142" s="140"/>
       <c r="C142" s="140"/>
       <c r="D142" s="140"/>
       <c r="E142" s="140"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="140"/>
       <c r="B143" s="140"/>
       <c r="C143" s="140"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="140"/>
       <c r="B144" s="140"/>
       <c r="C144" s="140"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="140"/>
       <c r="B145" s="140"/>
       <c r="C145" s="140"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="140"/>
       <c r="B146" s="140"/>
       <c r="C146" s="140"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="140"/>
       <c r="B147" s="140"/>
       <c r="C147" s="140"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="140"/>
       <c r="B148" s="140"/>
       <c r="C148" s="140"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="140"/>
       <c r="B149" s="140"/>
       <c r="C149" s="140"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="140"/>
       <c r="B150" s="140"/>
       <c r="C150" s="140"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="140"/>
       <c r="B151" s="140"/>
       <c r="C151" s="140"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="140"/>
       <c r="B152" s="140"/>
       <c r="C152" s="140"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="140"/>
       <c r="B153" s="140"/>
       <c r="C153" s="140"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="140"/>
       <c r="B154" s="140"/>
       <c r="C154" s="140"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="140"/>
       <c r="B155" s="140"/>
       <c r="C155" s="140"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="140"/>
       <c r="B156" s="140"/>
       <c r="C156" s="140"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="140"/>
       <c r="B157" s="140"/>
       <c r="C157" s="140"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="140"/>
       <c r="B158" s="140"/>
       <c r="C158" s="140"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="140"/>
       <c r="B159" s="140"/>
       <c r="C159" s="140"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="140"/>
       <c r="B160" s="140"/>
       <c r="C160" s="140"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="140"/>
       <c r="B161" s="140"/>
       <c r="C161" s="140"/>
       <c r="D161" s="140"/>
       <c r="E161" s="140"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="140"/>
       <c r="B162" s="140"/>
       <c r="C162" s="140"/>
       <c r="D162" s="140"/>
       <c r="E162" s="140"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="140"/>
       <c r="B163" s="140"/>
       <c r="C163" s="140"/>
       <c r="D163" s="140"/>
       <c r="E163" s="140"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="140"/>
       <c r="B164" s="140"/>
       <c r="C164" s="140"/>
       <c r="D164" s="140"/>
       <c r="E164" s="140"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="140"/>
       <c r="B165" s="140"/>
       <c r="C165" s="140"/>
       <c r="D165" s="140"/>
       <c r="E165" s="140"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="140"/>
       <c r="B166" s="140"/>
       <c r="C166" s="140"/>
       <c r="D166" s="140"/>
       <c r="E166" s="140"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="140"/>
       <c r="B167" s="140"/>
       <c r="C167" s="140"/>
       <c r="D167" s="140"/>
       <c r="E167" s="140"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="140"/>
       <c r="B168" s="140"/>
       <c r="C168" s="140"/>
       <c r="D168" s="140"/>
       <c r="E168" s="140"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="140"/>
       <c r="B169" s="140"/>
       <c r="C169" s="140"/>
       <c r="D169" s="140"/>
       <c r="E169" s="140"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="140"/>
       <c r="B170" s="140"/>
       <c r="C170" s="140"/>
       <c r="D170" s="140"/>
       <c r="E170" s="140"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="140"/>
       <c r="B171" s="140"/>
       <c r="C171" s="140"/>
       <c r="D171" s="140"/>
       <c r="E171" s="140"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="140"/>
       <c r="B172" s="140"/>
       <c r="C172" s="140"/>
       <c r="D172" s="140"/>
       <c r="E172" s="140"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="140"/>
       <c r="B173" s="140"/>
       <c r="C173" s="140"/>
       <c r="D173" s="140"/>
       <c r="E173" s="140"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="140"/>
       <c r="B174" s="140"/>
       <c r="C174" s="140"/>
       <c r="D174" s="140"/>
       <c r="E174" s="140"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="140"/>
       <c r="B175" s="140"/>
       <c r="C175" s="140"/>
       <c r="D175" s="140"/>
       <c r="E175" s="140"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="140"/>
       <c r="B176" s="140"/>
       <c r="C176" s="140"/>
       <c r="D176" s="140"/>
       <c r="E176" s="140"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="140"/>
       <c r="B177" s="140"/>
       <c r="C177" s="140"/>
       <c r="D177" s="140"/>
       <c r="E177" s="140"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="140"/>
       <c r="B178" s="140"/>
       <c r="C178" s="140"/>
       <c r="D178" s="140"/>
       <c r="E178" s="140"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="140"/>
       <c r="B179" s="140"/>
       <c r="C179" s="140"/>
       <c r="D179" s="140"/>
       <c r="E179" s="140"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="140"/>
       <c r="B180" s="140"/>
       <c r="C180" s="140"/>
       <c r="D180" s="140"/>
       <c r="E180" s="140"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="140"/>
       <c r="B181" s="140"/>
       <c r="C181" s="140"/>
       <c r="D181" s="140"/>
       <c r="E181" s="140"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="140"/>
       <c r="B182" s="140"/>
       <c r="C182" s="140"/>
       <c r="D182" s="140"/>
       <c r="E182" s="140"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="140"/>
       <c r="B183" s="140"/>
       <c r="C183" s="140"/>
       <c r="D183" s="140"/>
       <c r="E183" s="140"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="140"/>
       <c r="B184" s="140"/>
       <c r="C184" s="140"/>
       <c r="D184" s="140"/>
       <c r="E184" s="140"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="140"/>
       <c r="B185" s="140"/>
       <c r="C185" s="140"/>
       <c r="D185" s="140"/>
       <c r="E185" s="140"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="140"/>
       <c r="B186" s="140"/>
       <c r="C186" s="140"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="140"/>
       <c r="B187" s="140"/>
       <c r="C187" s="140"/>
       <c r="D187" s="140"/>
       <c r="E187" s="140"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="140"/>
       <c r="B188" s="140"/>
       <c r="C188" s="140"/>
       <c r="D188" s="140"/>
       <c r="E188" s="140"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="140"/>
       <c r="B189" s="140"/>
       <c r="C189" s="140"/>
       <c r="D189" s="140"/>
       <c r="E189" s="140"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="140"/>
       <c r="B190" s="140"/>
       <c r="C190" s="140"/>
       <c r="D190" s="140"/>
       <c r="E190" s="140"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="140"/>
       <c r="B191" s="140"/>
       <c r="C191" s="140"/>
       <c r="D191" s="140"/>
       <c r="E191" s="140"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="140"/>
       <c r="B192" s="140"/>
       <c r="C192" s="140"/>
       <c r="D192" s="140"/>
       <c r="E192" s="140"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="140"/>
       <c r="B193" s="140"/>
       <c r="C193" s="140"/>
       <c r="D193" s="140"/>
       <c r="E193" s="140"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="140"/>
       <c r="B194" s="140"/>
       <c r="C194" s="140"/>
       <c r="D194" s="140"/>
       <c r="E194" s="140"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="140"/>
       <c r="B195" s="140"/>
       <c r="C195" s="140"/>
       <c r="D195" s="140"/>
       <c r="E195" s="140"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="140"/>
       <c r="B196" s="140"/>
       <c r="C196" s="140"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="140"/>
       <c r="B197" s="140"/>
       <c r="C197" s="140"/>
       <c r="D197" s="140"/>
       <c r="E197" s="140"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="140"/>
       <c r="B198" s="140"/>
       <c r="C198" s="140"/>
       <c r="D198" s="140"/>
       <c r="E198" s="140"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="140"/>
       <c r="B199" s="140"/>
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="140"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="140"/>
       <c r="B200" s="140"/>
       <c r="C200" s="140"/>
       <c r="D200" s="140"/>
       <c r="E200" s="140"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="140"/>
       <c r="B201" s="140"/>
       <c r="C201" s="140"/>
       <c r="D201" s="140"/>
       <c r="E201" s="140"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="140"/>
       <c r="B202" s="140"/>
       <c r="C202" s="140"/>
       <c r="D202" s="140"/>
       <c r="E202" s="140"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="140"/>
       <c r="B203" s="140"/>
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
       <c r="E203" s="140"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="140"/>
       <c r="B204" s="140"/>
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="140"/>
       <c r="B205" s="140"/>
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
       <c r="E205" s="140"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="140"/>
       <c r="B206" s="140"/>
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
       <c r="E206" s="140"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="140"/>
       <c r="B207" s="140"/>
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
       <c r="E207" s="140"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="140"/>
       <c r="B208" s="140"/>
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
       <c r="E208" s="140"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="140"/>
       <c r="B209" s="140"/>
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
       <c r="E209" s="140"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="140"/>
       <c r="B210" s="140"/>
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
       <c r="E210" s="140"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="140"/>
       <c r="B211" s="140"/>
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
       <c r="E211" s="140"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="140"/>
       <c r="B212" s="140"/>
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="140"/>
       <c r="B213" s="140"/>
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
       <c r="E213" s="140"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="140"/>
       <c r="B214" s="140"/>
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
       <c r="E214" s="140"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="140"/>
       <c r="B215" s="140"/>
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
       <c r="E215" s="140"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="140"/>
       <c r="B216" s="140"/>
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
       <c r="E216" s="140"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="140"/>
       <c r="B217" s="140"/>
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
       <c r="E217" s="140"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="140"/>
       <c r="B218" s="140"/>
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
       <c r="E218" s="140"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="140"/>
       <c r="B219" s="140"/>
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
       <c r="E219" s="140"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="140"/>
       <c r="B220" s="140"/>
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
       <c r="E220" s="140"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="140"/>
       <c r="B221" s="140"/>
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
       <c r="E221" s="140"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="140"/>
       <c r="B222" s="140"/>
       <c r="C222" s="140"/>
       <c r="D222" s="140"/>
       <c r="E222" s="140"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="140"/>
       <c r="B223" s="140"/>
       <c r="C223" s="140"/>
       <c r="D223" s="140"/>
       <c r="E223" s="140"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="140"/>
       <c r="B224" s="140"/>
       <c r="C224" s="140"/>
       <c r="D224" s="140"/>
       <c r="E224" s="140"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="140"/>
       <c r="B225" s="140"/>
       <c r="C225" s="140"/>
       <c r="D225" s="140"/>
       <c r="E225" s="140"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="140"/>
       <c r="B226" s="140"/>
       <c r="C226" s="140"/>
       <c r="D226" s="140"/>
       <c r="E226" s="140"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="140"/>
       <c r="B227" s="140"/>
       <c r="C227" s="140"/>
       <c r="D227" s="140"/>
       <c r="E227" s="140"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="140"/>
       <c r="B228" s="140"/>
       <c r="C228" s="140"/>
       <c r="D228" s="140"/>
       <c r="E228" s="140"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="140"/>
       <c r="B229" s="140"/>
       <c r="C229" s="140"/>
       <c r="D229" s="140"/>
       <c r="E229" s="140"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="140"/>
       <c r="B230" s="140"/>
       <c r="C230" s="140"/>
       <c r="D230" s="140"/>
       <c r="E230" s="140"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="140"/>
       <c r="B231" s="140"/>
       <c r="C231" s="140"/>
       <c r="D231" s="140"/>
       <c r="E231" s="140"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="140"/>
       <c r="B232" s="140"/>
       <c r="C232" s="140"/>
       <c r="D232" s="140"/>
       <c r="E232" s="140"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="140"/>
       <c r="B233" s="140"/>
       <c r="C233" s="140"/>
       <c r="D233" s="140"/>
       <c r="E233" s="140"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="140"/>
       <c r="B234" s="140"/>
       <c r="C234" s="140"/>
       <c r="D234" s="140"/>
       <c r="E234" s="140"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="140"/>
       <c r="B235" s="140"/>
       <c r="C235" s="140"/>
       <c r="D235" s="140"/>
       <c r="E235" s="140"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="140"/>
       <c r="B236" s="140"/>
       <c r="C236" s="140"/>
       <c r="D236" s="140"/>
       <c r="E236" s="140"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="140"/>
       <c r="B237" s="140"/>
       <c r="C237" s="140"/>
       <c r="D237" s="140"/>
       <c r="E237" s="140"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="140"/>
       <c r="B238" s="140"/>
       <c r="C238" s="140"/>
       <c r="D238" s="140"/>
       <c r="E238" s="140"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="140"/>
       <c r="B239" s="140"/>
       <c r="C239" s="140"/>
       <c r="D239" s="140"/>
       <c r="E239" s="140"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="140"/>
       <c r="B240" s="140"/>
       <c r="C240" s="140"/>
       <c r="D240" s="140"/>
       <c r="E240" s="140"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="140"/>
       <c r="B241" s="140"/>
       <c r="C241" s="140"/>
       <c r="D241" s="140"/>
       <c r="E241" s="140"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="140"/>
       <c r="B242" s="140"/>
       <c r="C242" s="140"/>
       <c r="D242" s="140"/>
       <c r="E242" s="140"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="140"/>
       <c r="B243" s="140"/>
       <c r="C243" s="140"/>
       <c r="D243" s="140"/>
       <c r="E243" s="140"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="140"/>
       <c r="B244" s="140"/>
       <c r="C244" s="140"/>
       <c r="D244" s="140"/>
       <c r="E244" s="140"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="140"/>
       <c r="B245" s="140"/>
       <c r="C245" s="140"/>
       <c r="D245" s="140"/>
       <c r="E245" s="140"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="140"/>
       <c r="B246" s="140"/>
       <c r="C246" s="140"/>
       <c r="D246" s="140"/>
       <c r="E246" s="140"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="140"/>
       <c r="B247" s="140"/>
       <c r="C247" s="140"/>
       <c r="D247" s="140"/>
       <c r="E247" s="140"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="140"/>
       <c r="B248" s="140"/>
       <c r="C248" s="140"/>
       <c r="D248" s="140"/>
       <c r="E248" s="140"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="140"/>
       <c r="B249" s="140"/>
       <c r="C249" s="140"/>
       <c r="D249" s="140"/>
       <c r="E249" s="140"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="140"/>
       <c r="B250" s="140"/>
       <c r="C250" s="140"/>
       <c r="D250" s="140"/>
       <c r="E250" s="140"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="140"/>
       <c r="B251" s="140"/>
       <c r="C251" s="140"/>
       <c r="D251" s="140"/>
       <c r="E251" s="140"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="140"/>
       <c r="B252" s="140"/>
       <c r="C252" s="140"/>
       <c r="D252" s="140"/>
       <c r="E252" s="140"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="140"/>
       <c r="B253" s="140"/>
       <c r="C253" s="140"/>
       <c r="D253" s="140"/>
       <c r="E253" s="140"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="140"/>
       <c r="B254" s="140"/>
       <c r="C254" s="140"/>
       <c r="D254" s="140"/>
       <c r="E254" s="140"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="140"/>
       <c r="B255" s="140"/>
       <c r="C255" s="140"/>
       <c r="D255" s="140"/>
       <c r="E255" s="140"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="140"/>
       <c r="B256" s="140"/>
       <c r="C256" s="140"/>
       <c r="D256" s="140"/>
       <c r="E256" s="140"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="140"/>
       <c r="B257" s="140"/>
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
       <c r="E257" s="140"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="140"/>
       <c r="B258" s="140"/>
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
       <c r="E258" s="140"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="140"/>
       <c r="B259" s="140"/>
       <c r="C259" s="140"/>
       <c r="D259" s="140"/>
       <c r="E259" s="140"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="140"/>
       <c r="B260" s="140"/>
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
       <c r="E260" s="140"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="140"/>
       <c r="B261" s="140"/>
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
       <c r="E261" s="140"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="140"/>
       <c r="B262" s="140"/>
       <c r="C262" s="140"/>
       <c r="D262" s="140"/>
       <c r="E262" s="140"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="140"/>
       <c r="B263" s="140"/>
       <c r="C263" s="140"/>
       <c r="D263" s="140"/>
       <c r="E263" s="140"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="140"/>
       <c r="B264" s="140"/>
       <c r="C264" s="140"/>
       <c r="D264" s="140"/>
       <c r="E264" s="140"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="140"/>
       <c r="B265" s="140"/>
       <c r="C265" s="140"/>
       <c r="D265" s="140"/>
       <c r="E265" s="140"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="140"/>
       <c r="B266" s="140"/>
       <c r="C266" s="140"/>
       <c r="D266" s="140"/>
       <c r="E266" s="140"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="140"/>
       <c r="B267" s="140"/>
       <c r="C267" s="140"/>
       <c r="D267" s="140"/>
       <c r="E267" s="140"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="140"/>
       <c r="B268" s="140"/>
       <c r="C268" s="140"/>
       <c r="D268" s="140"/>
       <c r="E268" s="140"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="140"/>
       <c r="B269" s="140"/>
       <c r="C269" s="140"/>
       <c r="D269" s="140"/>
       <c r="E269" s="140"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="140"/>
       <c r="B270" s="140"/>
       <c r="C270" s="140"/>
       <c r="D270" s="140"/>
       <c r="E270" s="140"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="140"/>
       <c r="B271" s="140"/>
       <c r="C271" s="140"/>
       <c r="D271" s="140"/>
       <c r="E271" s="140"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="140"/>
       <c r="B272" s="140"/>
       <c r="C272" s="140"/>
       <c r="D272" s="140"/>
       <c r="E272" s="140"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="140"/>
       <c r="B273" s="140"/>
       <c r="C273" s="140"/>
       <c r="D273" s="140"/>
       <c r="E273" s="140"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="140"/>
       <c r="B274" s="140"/>
       <c r="C274" s="140"/>
       <c r="D274" s="140"/>
       <c r="E274" s="140"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="140"/>
       <c r="B275" s="140"/>
       <c r="C275" s="140"/>
       <c r="D275" s="140"/>
       <c r="E275" s="140"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="140"/>
       <c r="B276" s="140"/>
       <c r="C276" s="140"/>
       <c r="D276" s="140"/>
       <c r="E276" s="140"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="140"/>
       <c r="B277" s="140"/>
       <c r="C277" s="140"/>
       <c r="D277" s="140"/>
       <c r="E277" s="140"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="140"/>
       <c r="B278" s="140"/>
       <c r="C278" s="140"/>
       <c r="D278" s="140"/>
       <c r="E278" s="140"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="140"/>
       <c r="B279" s="140"/>
       <c r="C279" s="140"/>
       <c r="D279" s="140"/>
       <c r="E279" s="140"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="140"/>
       <c r="B280" s="140"/>
       <c r="C280" s="140"/>
       <c r="D280" s="140"/>
       <c r="E280" s="140"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="140"/>
       <c r="B281" s="140"/>
       <c r="C281" s="140"/>
       <c r="D281" s="140"/>
       <c r="E281" s="140"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="140"/>
       <c r="B282" s="140"/>
       <c r="C282" s="140"/>
       <c r="D282" s="140"/>
       <c r="E282" s="140"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="140"/>
       <c r="B283" s="140"/>
       <c r="C283" s="140"/>
       <c r="D283" s="140"/>
       <c r="E283" s="140"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="140"/>
       <c r="B284" s="140"/>
       <c r="C284" s="140"/>
       <c r="D284" s="140"/>
       <c r="E284" s="140"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="140"/>
       <c r="B285" s="140"/>
       <c r="C285" s="140"/>
       <c r="D285" s="140"/>
       <c r="E285" s="140"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="140"/>
       <c r="B286" s="140"/>
       <c r="C286" s="140"/>
       <c r="D286" s="140"/>
       <c r="E286" s="140"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="140"/>
       <c r="B287" s="140"/>
       <c r="C287" s="140"/>
       <c r="D287" s="140"/>
       <c r="E287" s="140"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="140"/>
       <c r="B288" s="140"/>
       <c r="C288" s="140"/>
       <c r="D288" s="140"/>
       <c r="E288" s="140"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="140"/>
       <c r="B289" s="140"/>
       <c r="C289" s="140"/>
       <c r="D289" s="140"/>
       <c r="E289" s="140"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="140"/>
       <c r="B290" s="140"/>
       <c r="C290" s="140"/>
       <c r="D290" s="140"/>
       <c r="E290" s="140"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="140"/>
       <c r="B291" s="140"/>
       <c r="C291" s="140"/>
       <c r="D291" s="140"/>
       <c r="E291" s="140"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="140"/>
       <c r="B292" s="140"/>
       <c r="C292" s="140"/>
       <c r="D292" s="140"/>
       <c r="E292" s="140"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="140"/>
       <c r="B293" s="140"/>
       <c r="C293" s="140"/>
       <c r="D293" s="140"/>
       <c r="E293" s="140"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="140"/>
       <c r="B294" s="140"/>
       <c r="C294" s="140"/>
       <c r="D294" s="140"/>
       <c r="E294" s="140"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="140"/>
       <c r="B295" s="140"/>
       <c r="C295" s="140"/>
       <c r="D295" s="140"/>
       <c r="E295" s="140"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="140"/>
       <c r="B296" s="140"/>
       <c r="C296" s="140"/>
       <c r="D296" s="140"/>
       <c r="E296" s="140"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="140"/>
       <c r="B297" s="140"/>
       <c r="C297" s="140"/>
       <c r="D297" s="140"/>
       <c r="E297" s="140"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="140"/>
       <c r="B298" s="140"/>
       <c r="C298" s="140"/>
       <c r="D298" s="140"/>
       <c r="E298" s="140"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="140"/>
       <c r="B299" s="140"/>
       <c r="C299" s="140"/>
       <c r="D299" s="140"/>
       <c r="E299" s="140"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="140"/>
       <c r="B300" s="140"/>
       <c r="C300" s="140"/>
       <c r="D300" s="140"/>
       <c r="E300" s="140"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="140"/>
       <c r="B301" s="140"/>
       <c r="C301" s="140"/>
       <c r="D301" s="140"/>
       <c r="E301" s="140"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="140"/>
       <c r="B302" s="140"/>
       <c r="C302" s="140"/>
       <c r="D302" s="140"/>
       <c r="E302" s="140"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="140"/>
       <c r="B303" s="140"/>
       <c r="C303" s="140"/>
       <c r="D303" s="140"/>
       <c r="E303" s="140"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="140"/>
       <c r="B304" s="140"/>
       <c r="C304" s="140"/>
       <c r="D304" s="140"/>
       <c r="E304" s="140"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="140"/>
       <c r="B305" s="140"/>
       <c r="C305" s="140"/>
       <c r="D305" s="140"/>
       <c r="E305" s="140"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="140"/>
       <c r="B306" s="140"/>
       <c r="C306" s="140"/>
       <c r="D306" s="140"/>
       <c r="E306" s="140"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="140"/>
       <c r="B307" s="140"/>
       <c r="C307" s="140"/>
       <c r="D307" s="140"/>
       <c r="E307" s="140"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="140"/>
       <c r="B308" s="140"/>
       <c r="C308" s="140"/>
       <c r="D308" s="140"/>
       <c r="E308" s="140"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="140"/>
       <c r="B309" s="140"/>
       <c r="C309" s="140"/>
       <c r="D309" s="140"/>
       <c r="E309" s="140"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="140"/>
       <c r="B310" s="140"/>
       <c r="C310" s="140"/>
       <c r="D310" s="140"/>
       <c r="E310" s="140"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="140"/>
       <c r="B311" s="140"/>
       <c r="C311" s="140"/>
       <c r="D311" s="140"/>
       <c r="E311" s="140"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="140"/>
       <c r="B312" s="140"/>
       <c r="C312" s="140"/>
       <c r="D312" s="140"/>
       <c r="E312" s="140"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="140"/>
       <c r="B313" s="140"/>
       <c r="C313" s="140"/>
       <c r="D313" s="140"/>
       <c r="E313" s="140"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="140"/>
       <c r="B314" s="140"/>
       <c r="C314" s="140"/>
       <c r="D314" s="140"/>
       <c r="E314" s="140"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="140"/>
       <c r="B315" s="140"/>
       <c r="C315" s="140"/>
       <c r="D315" s="140"/>
       <c r="E315" s="140"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="140"/>
       <c r="B316" s="140"/>
       <c r="C316" s="140"/>
       <c r="D316" s="140"/>
       <c r="E316" s="140"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="140"/>
       <c r="B317" s="140"/>
       <c r="C317" s="140"/>
       <c r="D317" s="140"/>
       <c r="E317" s="140"/>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="140"/>
       <c r="B318" s="140"/>
       <c r="C318" s="140"/>
       <c r="D318" s="140"/>
       <c r="E318" s="140"/>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="140"/>
       <c r="B319" s="140"/>
       <c r="C319" s="140"/>
       <c r="D319" s="140"/>
       <c r="E319" s="140"/>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="140"/>
       <c r="B320" s="140"/>
       <c r="C320" s="140"/>
@@ -6191,6 +6198,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6207,24 +6218,20 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6234,13 +6241,13 @@
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="262" t="s">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="275"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6254,13 +6261,13 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="265" t="s">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -6275,7 +6282,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="141" t="s">
         <v>12</v>
       </c>
@@ -6302,7 +6309,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>45</v>
       </c>
@@ -6328,7 +6335,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -6352,7 +6359,7 @@
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>131</v>
       </c>
@@ -6382,7 +6389,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="39"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="50"/>
       <c r="C7" s="46"/>
@@ -6406,7 +6413,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="39"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="58"/>
       <c r="C8" s="59"/>
@@ -6430,7 +6437,7 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
@@ -6454,7 +6461,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="65"/>
@@ -6476,7 +6483,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="62"/>
       <c r="C11" s="65"/>
@@ -6500,7 +6507,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="62"/>
       <c r="C12" s="59"/>
@@ -6524,7 +6531,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -6548,7 +6555,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -6572,7 +6579,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="46"/>
       <c r="C15" s="65"/>
@@ -6596,7 +6603,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="50"/>
       <c r="C16" s="46"/>
@@ -6620,7 +6627,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="50"/>
       <c r="C17" s="46"/>
@@ -6644,7 +6651,7 @@
       <c r="R17" s="55"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="58"/>
       <c r="C18" s="59"/>
@@ -6668,7 +6675,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
       <c r="C19" s="59"/>
@@ -6692,7 +6699,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="65"/>
@@ -6716,7 +6723,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="50"/>
       <c r="C21" s="46"/>
@@ -6740,7 +6747,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="46"/>
@@ -6764,7 +6771,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="46"/>
@@ -6788,7 +6795,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="50"/>
       <c r="C24" s="46"/>
@@ -6812,7 +6819,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="50"/>
       <c r="C25" s="46"/>
@@ -6836,7 +6843,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="50"/>
       <c r="C26" s="59"/>
@@ -6858,7 +6865,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="50"/>
       <c r="C27" s="59"/>
@@ -6880,7 +6887,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="50"/>
       <c r="C28" s="46"/>
@@ -6902,7 +6909,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="59"/>
@@ -6924,7 +6931,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="46"/>
@@ -6946,7 +6953,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="72"/>
       <c r="C31" s="46"/>
@@ -6968,7 +6975,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="72"/>
       <c r="C32" s="59"/>
@@ -6990,7 +6997,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="72"/>
       <c r="C33" s="73"/>
@@ -7012,7 +7019,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="72"/>
       <c r="C34" s="73"/>
@@ -7034,7 +7041,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="74"/>
       <c r="C35" s="73"/>
@@ -7056,7 +7063,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="50"/>
       <c r="C36" s="75"/>
@@ -7078,7 +7085,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="50"/>
       <c r="C37" s="46"/>
@@ -7100,7 +7107,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="46"/>
@@ -7122,7 +7129,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="50"/>
       <c r="C39" s="46"/>
@@ -7144,7 +7151,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="46"/>
@@ -7166,7 +7173,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="50"/>
       <c r="C41" s="46"/>
@@ -7188,7 +7195,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="62"/>
       <c r="C42" s="77"/>
@@ -7210,7 +7217,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="46"/>
@@ -7232,7 +7239,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="62"/>
       <c r="C44" s="78"/>
@@ -7254,7 +7261,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="46"/>
@@ -7276,7 +7283,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="72"/>
       <c r="C46" s="46"/>
@@ -7298,7 +7305,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="50"/>
       <c r="C47" s="46"/>
@@ -7320,7 +7327,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="50"/>
       <c r="C48" s="46"/>
@@ -7342,7 +7349,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="50"/>
       <c r="C49" s="46"/>
@@ -7364,7 +7371,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="80"/>
       <c r="B50" s="50"/>
       <c r="C50" s="46"/>
@@ -7386,7 +7393,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="80"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
@@ -7408,7 +7415,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="80"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -7430,7 +7437,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="80"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -7452,7 +7459,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="80"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -7474,7 +7481,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="80"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -7496,7 +7503,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="80"/>
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
@@ -7518,7 +7525,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="80"/>
       <c r="B57" s="50"/>
       <c r="C57" s="46"/>
@@ -7540,7 +7547,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="80"/>
       <c r="B58" s="50"/>
       <c r="C58" s="46"/>
@@ -7562,7 +7569,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="80"/>
       <c r="B59" s="50"/>
       <c r="C59" s="46"/>
@@ -7584,7 +7591,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="80"/>
       <c r="B60" s="62"/>
       <c r="C60" s="46"/>
@@ -7606,7 +7613,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="80"/>
       <c r="B61" s="62"/>
       <c r="C61" s="46"/>
@@ -7628,7 +7635,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="80"/>
       <c r="B62" s="50"/>
       <c r="C62" s="46"/>
@@ -7650,7 +7657,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="80"/>
       <c r="B63" s="50"/>
       <c r="C63" s="46"/>
@@ -7672,7 +7679,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="80"/>
       <c r="B64" s="50"/>
       <c r="C64" s="46"/>
@@ -7694,7 +7701,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="80"/>
       <c r="B65" s="50"/>
       <c r="C65" s="46"/>
@@ -7716,7 +7723,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="80"/>
       <c r="B66" s="50"/>
       <c r="C66" s="46"/>
@@ -7738,7 +7745,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="80"/>
       <c r="B67" s="50"/>
       <c r="C67" s="46"/>
@@ -7760,7 +7767,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="80"/>
       <c r="B68" s="50"/>
       <c r="C68" s="46"/>
@@ -7782,7 +7789,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="80"/>
       <c r="B69" s="50"/>
       <c r="C69" s="46"/>
@@ -7804,7 +7811,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="80"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
@@ -7826,7 +7833,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="80"/>
       <c r="B71" s="50"/>
       <c r="C71" s="46"/>
@@ -7848,7 +7855,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="80"/>
       <c r="B72" s="50"/>
       <c r="C72" s="46"/>
@@ -7870,7 +7877,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="80"/>
       <c r="B73" s="50"/>
       <c r="C73" s="46"/>
@@ -7892,7 +7899,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="80"/>
       <c r="B74" s="50"/>
       <c r="C74" s="46"/>
@@ -7914,7 +7921,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="80"/>
       <c r="B75" s="50"/>
       <c r="C75" s="46"/>
@@ -7936,7 +7943,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="80"/>
       <c r="B76" s="50"/>
       <c r="C76" s="46"/>
@@ -7958,7 +7965,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="80"/>
       <c r="B77" s="50"/>
       <c r="C77" s="46"/>
@@ -7980,7 +7987,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="80"/>
       <c r="B78" s="50"/>
       <c r="C78" s="46"/>
@@ -8002,7 +8009,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="80"/>
       <c r="B79" s="50"/>
       <c r="C79" s="46"/>
@@ -8024,7 +8031,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="80"/>
       <c r="B80" s="50"/>
       <c r="C80" s="46"/>
@@ -8046,7 +8053,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="80"/>
       <c r="B81" s="50"/>
       <c r="C81" s="46"/>
@@ -8068,7 +8075,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="80"/>
       <c r="B82" s="50"/>
       <c r="C82" s="46"/>
@@ -8090,7 +8097,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="81"/>
       <c r="B83" s="50">
         <f>SUM(B4:B72)</f>
@@ -8116,7 +8123,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D84" s="83"/>
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
@@ -8128,11 +8135,11 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S89">
         <v>3381</v>
       </c>
@@ -8147,14 +8154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
@@ -8171,28 +8178,28 @@
     <col min="13" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="266" t="s">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="277" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="268"/>
+      <c r="B1" s="278"/>
+      <c r="C1" s="278"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="279"/>
       <c r="G1" s="21"/>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="269" t="s">
+    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="271"/>
-    </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1">
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="282"/>
+    </row>
+    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
@@ -8208,20 +8215,20 @@
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="84"/>
       <c r="B4" s="19"/>
       <c r="C4" s="37"/>
       <c r="D4" s="18"/>
       <c r="E4" s="85"/>
       <c r="F4" s="28"/>
-      <c r="J4" s="272" t="s">
+      <c r="J4" s="283" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="273"/>
-      <c r="L4" s="274"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5">
+      <c r="K4" s="284"/>
+      <c r="L4" s="285"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>8</v>
       </c>
@@ -8246,7 +8253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21.75">
+    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>40</v>
       </c>
@@ -8271,7 +8278,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.75">
+    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="86"/>
       <c r="B7" s="30"/>
       <c r="C7" s="37"/>
@@ -8292,7 +8299,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.75">
+    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
         <v>41</v>
       </c>
@@ -8317,7 +8324,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="23.25">
+    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="86" t="s">
         <v>9</v>
       </c>
@@ -8342,7 +8349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21.75">
+    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="31"/>
       <c r="C10" s="37"/>
@@ -8359,7 +8366,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21.75">
+    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="30"/>
       <c r="C11" s="37"/>
@@ -8384,7 +8391,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21.75">
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>39</v>
       </c>
@@ -8408,7 +8415,7 @@
         <v>120006</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="21.75">
+    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
       <c r="B13" s="38"/>
       <c r="C13" s="37"/>
@@ -8419,7 +8426,7 @@
       <c r="K13" s="186"/>
       <c r="L13" s="186"/>
     </row>
-    <row r="14" spans="1:12" s="25" customFormat="1" ht="21.75">
+    <row r="14" spans="1:12" s="25" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="86"/>
       <c r="B14" s="30"/>
       <c r="C14" s="37"/>
@@ -8436,7 +8443,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21.75">
+    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="86" t="s">
         <v>43</v>
       </c>
@@ -8463,7 +8470,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="92"/>
       <c r="B16" s="93"/>
       <c r="C16" s="94"/>
@@ -8480,18 +8487,18 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="276"/>
-      <c r="C17" s="276"/>
-      <c r="D17" s="276"/>
-      <c r="E17" s="277"/>
+    <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="286"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="288"/>
       <c r="F17" s="26"/>
       <c r="J17" s="190"/>
       <c r="K17" s="190"/>
       <c r="L17" s="190"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="27"/>
       <c r="D18" s="13"/>
@@ -8506,7 +8513,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="27"/>
       <c r="F19" s="26"/>
@@ -8520,44 +8527,44 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21">
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="27"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="26"/>
-      <c r="J20" s="278" t="s">
+      <c r="J20" s="289" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="278"/>
+      <c r="K20" s="289"/>
       <c r="L20" s="191">
         <f>SUM(L6:L19)</f>
         <v>146795</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C21" s="27"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="145"/>
       <c r="B25" s="8"/>
       <c r="C25" s="27"/>
@@ -8567,32 +8574,32 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="145"/>
       <c r="B26" s="8"/>
       <c r="C26" s="27"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="27"/>
       <c r="D27" s="12"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="27"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="27"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="27"/>
       <c r="D30" s="7"/>
@@ -8613,146 +8620,146 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="22" width="5.7109375" style="147" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" style="147" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24" customHeight="1">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
-      <c r="R1" s="279"/>
-      <c r="S1" s="279"/>
-      <c r="T1" s="279"/>
-      <c r="U1" s="279"/>
-      <c r="V1" s="279"/>
-      <c r="W1" s="279"/>
-    </row>
-    <row r="2" spans="1:23" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="281" t="s">
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+      <c r="P1" s="295"/>
+      <c r="Q1" s="295"/>
+      <c r="R1" s="295"/>
+      <c r="S1" s="295"/>
+      <c r="T1" s="295"/>
+      <c r="U1" s="295"/>
+      <c r="V1" s="295"/>
+      <c r="W1" s="295"/>
+    </row>
+    <row r="2" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="297" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="280" t="s">
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="305"/>
+      <c r="K2" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
-      <c r="R2" s="280"/>
-      <c r="S2" s="280"/>
-      <c r="T2" s="280"/>
-      <c r="U2" s="280"/>
-      <c r="V2" s="280"/>
-      <c r="W2" s="280"/>
-    </row>
-    <row r="3" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="297"/>
-      <c r="B3" s="298" t="s">
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="296"/>
+      <c r="P2" s="296"/>
+      <c r="Q2" s="296"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="296"/>
+      <c r="U2" s="296"/>
+      <c r="V2" s="296"/>
+      <c r="W2" s="296"/>
+    </row>
+    <row r="3" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="237"/>
+      <c r="B3" s="290" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="298" t="s">
+      <c r="C3" s="291"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="290" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="301"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="301" t="s">
+      <c r="F3" s="293"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="293" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="303" t="s">
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="298" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="304"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="303" t="s">
+      <c r="L3" s="299"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="304"/>
-      <c r="P3" s="305"/>
-      <c r="Q3" s="306" t="s">
+      <c r="O3" s="299"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="301"/>
-      <c r="S3" s="302"/>
-      <c r="T3" s="303" t="s">
+      <c r="R3" s="293"/>
+      <c r="S3" s="294"/>
+      <c r="T3" s="298" t="s">
         <v>121</v>
       </c>
-      <c r="U3" s="304"/>
-      <c r="V3" s="305"/>
-      <c r="W3" s="307" t="s">
+      <c r="U3" s="299"/>
+      <c r="V3" s="300"/>
+      <c r="W3" s="302" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="308" t="s">
+    <row r="4" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="309" t="s">
+      <c r="B4" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="310" t="s">
+      <c r="C4" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="311" t="s">
+      <c r="D4" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="309" t="s">
+      <c r="E4" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="310" t="s">
+      <c r="F4" s="240" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="312" t="s">
+      <c r="G4" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="313" t="s">
+      <c r="H4" s="243" t="s">
         <v>118</v>
       </c>
       <c r="I4" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="314" t="s">
+      <c r="J4" s="244" t="s">
         <v>117</v>
       </c>
       <c r="K4" s="179" t="s">
@@ -8761,7 +8768,7 @@
       <c r="L4" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="312" t="s">
+      <c r="M4" s="242" t="s">
         <v>117</v>
       </c>
       <c r="N4" s="179" t="s">
@@ -8770,7 +8777,7 @@
       <c r="O4" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="242" t="s">
         <v>117</v>
       </c>
       <c r="Q4" s="179" t="s">
@@ -8779,7 +8786,7 @@
       <c r="R4" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="312" t="s">
+      <c r="S4" s="242" t="s">
         <v>117</v>
       </c>
       <c r="T4" s="179" t="s">
@@ -8788,12 +8795,12 @@
       <c r="U4" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="312" t="s">
+      <c r="V4" s="242" t="s">
         <v>117</v>
       </c>
-      <c r="W4" s="315"/>
-    </row>
-    <row r="5" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1">
+      <c r="W4" s="303"/>
+    </row>
+    <row r="5" spans="1:23" s="148" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="235">
         <v>34</v>
       </c>
@@ -8820,7 +8827,7 @@
       <c r="V5" s="222"/>
       <c r="W5" s="231"/>
     </row>
-    <row r="6" spans="1:23" s="149" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:23" s="149" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="235">
         <v>35</v>
       </c>
@@ -8847,7 +8854,7 @@
       <c r="V6" s="224"/>
       <c r="W6" s="232"/>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="235">
         <v>36</v>
       </c>
@@ -8874,7 +8881,7 @@
       <c r="V7" s="226"/>
       <c r="W7" s="233"/>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="235">
         <v>37</v>
       </c>
@@ -8901,7 +8908,7 @@
       <c r="V8" s="226"/>
       <c r="W8" s="233"/>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="235">
         <v>38</v>
       </c>
@@ -8928,7 +8935,7 @@
       <c r="V9" s="226"/>
       <c r="W9" s="233"/>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="235">
         <v>39</v>
       </c>
@@ -8955,7 +8962,7 @@
       <c r="V10" s="226"/>
       <c r="W10" s="233"/>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1">
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="235">
         <v>40</v>
       </c>
@@ -8982,7 +8989,7 @@
       <c r="V11" s="226"/>
       <c r="W11" s="233"/>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1">
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="235">
         <v>41</v>
       </c>
@@ -9009,7 +9016,7 @@
       <c r="V12" s="226"/>
       <c r="W12" s="233"/>
     </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1">
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="235">
         <v>42</v>
       </c>
@@ -9036,7 +9043,7 @@
       <c r="V13" s="226"/>
       <c r="W13" s="233"/>
     </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1">
+    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="235">
         <v>43</v>
       </c>
@@ -9063,7 +9070,7 @@
       <c r="V14" s="226"/>
       <c r="W14" s="233"/>
     </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1">
+    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="235">
         <v>44</v>
       </c>
@@ -9090,7 +9097,7 @@
       <c r="V15" s="226"/>
       <c r="W15" s="233"/>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="235">
         <v>45</v>
       </c>
@@ -9117,7 +9124,7 @@
       <c r="V16" s="226"/>
       <c r="W16" s="233"/>
     </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1">
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="235">
         <v>46</v>
       </c>
@@ -9144,7 +9151,7 @@
       <c r="V17" s="226"/>
       <c r="W17" s="233"/>
     </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1">
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="235">
         <v>47</v>
       </c>
@@ -9171,7 +9178,7 @@
       <c r="V18" s="226"/>
       <c r="W18" s="233"/>
     </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1">
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="235">
         <v>48</v>
       </c>
@@ -9198,7 +9205,7 @@
       <c r="V19" s="226"/>
       <c r="W19" s="233"/>
     </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1">
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="235">
         <v>49</v>
       </c>
@@ -9225,7 +9232,7 @@
       <c r="V20" s="226"/>
       <c r="W20" s="233"/>
     </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1">
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="235">
         <v>50</v>
       </c>
@@ -9252,7 +9259,7 @@
       <c r="V21" s="226"/>
       <c r="W21" s="233"/>
     </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1">
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="235">
         <v>51</v>
       </c>
@@ -9279,7 +9286,7 @@
       <c r="V22" s="226"/>
       <c r="W22" s="233"/>
     </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1">
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="235">
         <v>52</v>
       </c>
@@ -9306,7 +9313,7 @@
       <c r="V23" s="226"/>
       <c r="W23" s="233"/>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="235">
         <v>53</v>
       </c>
@@ -9333,7 +9340,7 @@
       <c r="V24" s="226"/>
       <c r="W24" s="233"/>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" thickBot="1">
+    <row r="25" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="236">
         <v>54</v>
       </c>
@@ -9360,32 +9367,32 @@
       <c r="V25" s="226"/>
       <c r="W25" s="233"/>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" thickBot="1">
-      <c r="A26" s="316"/>
-      <c r="B26" s="317"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="317"/>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="317"/>
-      <c r="N26" s="317"/>
-      <c r="O26" s="317"/>
-      <c r="P26" s="317"/>
-      <c r="Q26" s="317"/>
-      <c r="R26" s="317"/>
-      <c r="S26" s="317"/>
-      <c r="T26" s="317"/>
-      <c r="U26" s="317"/>
-      <c r="V26" s="317"/>
-      <c r="W26" s="318"/>
-    </row>
-    <row r="27" spans="1:23">
+    <row r="26" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="245"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="246"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="246"/>
+      <c r="M26" s="246"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="246"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="246"/>
+      <c r="U26" s="246"/>
+      <c r="V26" s="246"/>
+      <c r="W26" s="247"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -9393,7 +9400,7 @@
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
     </row>
-    <row r="28" spans="1:23" s="159" customFormat="1">
+    <row r="28" spans="1:23" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
       <c r="B28" s="63"/>
       <c r="C28" s="162"/>
@@ -9405,139 +9412,139 @@
       <c r="I28" s="147"/>
       <c r="J28" s="147"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
       <c r="F29" s="63"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="F30" s="63"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="F31" s="63"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
       <c r="D32" s="63"/>
       <c r="F32" s="63"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="164"/>
       <c r="B34" s="164"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
     </row>
@@ -9567,7 +9574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9577,7 +9584,7 @@
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="147" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="147" customWidth="1"/>
@@ -9601,119 +9608,119 @@
     <col min="23" max="16384" width="9.140625" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-    </row>
-    <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="312"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+    </row>
+    <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-    </row>
-    <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="291" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+    </row>
+    <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="291"/>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="291"/>
-    </row>
-    <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="292" t="s">
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="313"/>
+    </row>
+    <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="293"/>
+      <c r="B5" s="315"/>
       <c r="C5" s="193"/>
       <c r="D5" s="194" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="194"/>
-      <c r="F5" s="288" t="s">
+      <c r="F5" s="310" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="288"/>
-      <c r="H5" s="288"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="288"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="289"/>
-      <c r="T5" s="287" t="s">
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="310"/>
+      <c r="J5" s="310"/>
+      <c r="K5" s="310"/>
+      <c r="L5" s="310"/>
+      <c r="M5" s="310"/>
+      <c r="N5" s="310"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="310"/>
+      <c r="Q5" s="311"/>
+      <c r="T5" s="309" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="288"/>
-      <c r="V5" s="289"/>
-    </row>
-    <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="U5" s="310"/>
+      <c r="V5" s="311"/>
+    </row>
+    <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="195" t="s">
         <v>48</v>
       </c>
@@ -9775,7 +9782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1">
+    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="150">
         <v>1</v>
       </c>
@@ -9809,7 +9816,7 @@
         <v>24639</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="18" customHeight="1">
+    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150">
         <v>2</v>
       </c>
@@ -9843,7 +9850,7 @@
         <v>37436</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1">
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153">
         <v>3</v>
       </c>
@@ -9872,7 +9879,7 @@
       <c r="U9" s="188"/>
       <c r="V9" s="188"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="173">
         <v>4</v>
       </c>
@@ -9896,13 +9903,13 @@
       <c r="O10" s="174"/>
       <c r="P10" s="170"/>
       <c r="Q10" s="175"/>
-      <c r="T10" s="294" t="s">
+      <c r="T10" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="U10" s="295"/>
-      <c r="V10" s="296"/>
-    </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1">
+      <c r="U10" s="317"/>
+      <c r="V10" s="318"/>
+    </row>
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153">
         <v>5</v>
       </c>
@@ -9943,7 +9950,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1">
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176">
         <v>6</v>
       </c>
@@ -9971,7 +9978,7 @@
       <c r="U12" s="188"/>
       <c r="V12" s="188"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
         <v>7</v>
       </c>
@@ -9995,13 +10002,13 @@
       <c r="O13" s="170"/>
       <c r="P13" s="170"/>
       <c r="Q13" s="175"/>
-      <c r="T13" s="294" t="s">
+      <c r="T13" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="295"/>
-      <c r="V13" s="296"/>
-    </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1">
+      <c r="U13" s="317"/>
+      <c r="V13" s="318"/>
+    </row>
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176">
         <v>8</v>
       </c>
@@ -10036,7 +10043,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1">
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153">
         <v>9</v>
       </c>
@@ -10072,7 +10079,7 @@
         <v>63713</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18" customHeight="1">
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="176">
         <v>10</v>
       </c>
@@ -10097,7 +10104,7 @@
       <c r="P16" s="170"/>
       <c r="Q16" s="175"/>
     </row>
-    <row r="17" spans="1:21" ht="18.75">
+    <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="153" t="s">
         <v>113</v>
       </c>
@@ -10143,7 +10150,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="18.75">
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="150">
         <v>12</v>
       </c>
@@ -10177,7 +10184,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75">
+    <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="177">
         <v>13</v>
       </c>
@@ -10198,7 +10205,7 @@
       <c r="P19" s="170"/>
       <c r="Q19" s="175"/>
     </row>
-    <row r="20" spans="1:21" ht="18.75">
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="179">
         <v>14</v>
       </c>
@@ -10223,7 +10230,7 @@
       <c r="P20" s="170"/>
       <c r="Q20" s="175"/>
     </row>
-    <row r="21" spans="1:21" ht="18.75">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="177">
         <v>15</v>
       </c>
@@ -10244,7 +10251,7 @@
       <c r="P21" s="170"/>
       <c r="Q21" s="175"/>
     </row>
-    <row r="22" spans="1:21" ht="18.75">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="177">
         <v>17</v>
       </c>
@@ -10265,7 +10272,7 @@
       <c r="P22" s="170"/>
       <c r="Q22" s="175"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="179">
         <v>18</v>
       </c>
@@ -10286,7 +10293,7 @@
       <c r="P23" s="170"/>
       <c r="Q23" s="175"/>
     </row>
-    <row r="24" spans="1:21" ht="18.75">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="177">
         <v>19</v>
       </c>
@@ -10307,7 +10314,7 @@
       <c r="P24" s="170"/>
       <c r="Q24" s="175"/>
     </row>
-    <row r="25" spans="1:21" ht="18.75">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="180">
         <v>20</v>
       </c>
@@ -10328,7 +10335,7 @@
       <c r="P25" s="170"/>
       <c r="Q25" s="175"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="180">
         <v>21</v>
       </c>
@@ -10349,7 +10356,7 @@
       <c r="P26" s="170"/>
       <c r="Q26" s="175"/>
     </row>
-    <row r="27" spans="1:21" ht="19.5" thickBot="1">
+    <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="180">
         <v>22</v>
       </c>
@@ -10370,12 +10377,12 @@
       <c r="P27" s="170"/>
       <c r="Q27" s="175"/>
     </row>
-    <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="284" t="s">
+    <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="306" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="285"/>
-      <c r="C28" s="286"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="308"/>
       <c r="D28" s="201">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10430,7 +10437,7 @@
       </c>
       <c r="Q28" s="202"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -10440,7 +10447,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="53"/>
@@ -10452,7 +10459,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="53"/>
@@ -10461,7 +10468,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="53"/>
@@ -10470,7 +10477,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="53"/>
@@ -10479,7 +10486,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="53"/>
@@ -10488,589 +10495,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="164"/>
       <c r="B36" s="164"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
@@ -11095,14 +11102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="147" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="147" customWidth="1"/>
@@ -11126,119 +11133,119 @@
     <col min="23" max="16384" width="9.140625" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
-      <c r="A2" s="290"/>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="290"/>
-    </row>
-    <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="312"/>
+      <c r="B2" s="312"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="312"/>
+    </row>
+    <row r="3" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="295" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="279"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-    </row>
-    <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="291" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="295"/>
+      <c r="J3" s="295"/>
+      <c r="K3" s="295"/>
+      <c r="L3" s="295"/>
+      <c r="M3" s="295"/>
+      <c r="N3" s="295"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="295"/>
+      <c r="Q3" s="295"/>
+    </row>
+    <row r="4" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="313" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="291"/>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="291"/>
-    </row>
-    <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="292" t="s">
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="313"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="313"/>
+      <c r="L4" s="313"/>
+      <c r="M4" s="313"/>
+      <c r="N4" s="313"/>
+      <c r="O4" s="313"/>
+      <c r="P4" s="313"/>
+      <c r="Q4" s="313"/>
+    </row>
+    <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="293"/>
+      <c r="B5" s="315"/>
       <c r="C5" s="193"/>
       <c r="D5" s="194" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="194"/>
-      <c r="F5" s="288" t="s">
+      <c r="F5" s="310" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="288"/>
-      <c r="H5" s="288"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="288"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="288"/>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="289"/>
-      <c r="T5" s="287" t="s">
+      <c r="G5" s="310"/>
+      <c r="H5" s="310"/>
+      <c r="I5" s="310"/>
+      <c r="J5" s="310"/>
+      <c r="K5" s="310"/>
+      <c r="L5" s="310"/>
+      <c r="M5" s="310"/>
+      <c r="N5" s="310"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="310"/>
+      <c r="Q5" s="311"/>
+      <c r="T5" s="309" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="288"/>
-      <c r="V5" s="289"/>
-    </row>
-    <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1">
+      <c r="U5" s="310"/>
+      <c r="V5" s="311"/>
+    </row>
+    <row r="6" spans="1:22" s="149" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="195" t="s">
         <v>48</v>
       </c>
@@ -11300,7 +11307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1">
+    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="150">
         <v>1</v>
       </c>
@@ -11334,7 +11341,7 @@
         <v>24639</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="18" customHeight="1">
+    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="150">
         <v>2</v>
       </c>
@@ -11376,7 +11383,7 @@
         <v>37436</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1">
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153">
         <v>3</v>
       </c>
@@ -11413,7 +11420,7 @@
       <c r="U9" s="188"/>
       <c r="V9" s="188"/>
     </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1">
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="173">
         <v>4</v>
       </c>
@@ -11437,13 +11444,13 @@
       <c r="O10" s="174"/>
       <c r="P10" s="170"/>
       <c r="Q10" s="175"/>
-      <c r="T10" s="294" t="s">
+      <c r="T10" s="316" t="s">
         <v>124</v>
       </c>
-      <c r="U10" s="295"/>
-      <c r="V10" s="296"/>
-    </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1">
+      <c r="U10" s="317"/>
+      <c r="V10" s="318"/>
+    </row>
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153">
         <v>5</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1">
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="176">
         <v>6</v>
       </c>
@@ -11512,7 +11519,7 @@
       <c r="U12" s="188"/>
       <c r="V12" s="188"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
         <v>7</v>
       </c>
@@ -11536,13 +11543,13 @@
       <c r="O13" s="170"/>
       <c r="P13" s="170"/>
       <c r="Q13" s="175"/>
-      <c r="T13" s="294" t="s">
+      <c r="T13" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="U13" s="295"/>
-      <c r="V13" s="296"/>
-    </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1">
+      <c r="U13" s="317"/>
+      <c r="V13" s="318"/>
+    </row>
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="176">
         <v>8</v>
       </c>
@@ -11577,7 +11584,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1">
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153">
         <v>9</v>
       </c>
@@ -11613,7 +11620,7 @@
         <v>63713</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18" customHeight="1">
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="176">
         <v>10</v>
       </c>
@@ -11638,7 +11645,7 @@
       <c r="P16" s="170"/>
       <c r="Q16" s="175"/>
     </row>
-    <row r="17" spans="1:21" ht="18.75">
+    <row r="17" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="153" t="s">
         <v>113</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="18.75">
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="150">
         <v>12</v>
       </c>
@@ -11718,7 +11725,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75">
+    <row r="19" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="177">
         <v>13</v>
       </c>
@@ -11739,7 +11746,7 @@
       <c r="P19" s="170"/>
       <c r="Q19" s="175"/>
     </row>
-    <row r="20" spans="1:21" ht="18.75">
+    <row r="20" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="179">
         <v>14</v>
       </c>
@@ -11764,7 +11771,7 @@
       <c r="P20" s="170"/>
       <c r="Q20" s="175"/>
     </row>
-    <row r="21" spans="1:21" ht="18.75">
+    <row r="21" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="177">
         <v>15</v>
       </c>
@@ -11785,7 +11792,7 @@
       <c r="P21" s="170"/>
       <c r="Q21" s="175"/>
     </row>
-    <row r="22" spans="1:21" ht="18.75">
+    <row r="22" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="177">
         <v>17</v>
       </c>
@@ -11806,7 +11813,7 @@
       <c r="P22" s="170"/>
       <c r="Q22" s="175"/>
     </row>
-    <row r="23" spans="1:21" ht="18.75">
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="179">
         <v>18</v>
       </c>
@@ -11827,7 +11834,7 @@
       <c r="P23" s="170"/>
       <c r="Q23" s="175"/>
     </row>
-    <row r="24" spans="1:21" ht="18.75">
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="177">
         <v>19</v>
       </c>
@@ -11848,7 +11855,7 @@
       <c r="P24" s="170"/>
       <c r="Q24" s="175"/>
     </row>
-    <row r="25" spans="1:21" ht="18.75">
+    <row r="25" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="180">
         <v>20</v>
       </c>
@@ -11869,7 +11876,7 @@
       <c r="P25" s="170"/>
       <c r="Q25" s="175"/>
     </row>
-    <row r="26" spans="1:21" ht="18.75">
+    <row r="26" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="180">
         <v>21</v>
       </c>
@@ -11890,7 +11897,7 @@
       <c r="P26" s="170"/>
       <c r="Q26" s="175"/>
     </row>
-    <row r="27" spans="1:21" ht="19.5" thickBot="1">
+    <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="180">
         <v>22</v>
       </c>
@@ -11911,12 +11918,12 @@
       <c r="P27" s="170"/>
       <c r="Q27" s="175"/>
     </row>
-    <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A28" s="284" t="s">
+    <row r="28" spans="1:21" s="159" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="306" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="285"/>
-      <c r="C28" s="286"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="308"/>
       <c r="D28" s="201">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -11971,7 +11978,7 @@
       </c>
       <c r="Q28" s="202"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -11981,7 +11988,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="53"/>
@@ -11993,7 +12000,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="53"/>
@@ -12002,7 +12009,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="53"/>
@@ -12011,7 +12018,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="53"/>
@@ -12020,7 +12027,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="53"/>
@@ -12029,589 +12036,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="164"/>
       <c r="B36" s="164"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
